--- a/Archivos/Funciones.xlsx
+++ b/Archivos/Funciones.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\DES\Archivos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4FB139B-0561-4ED4-8EF1-D6BC3BD54F4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2DC2A3D-F82D-4F89-A4F5-397C64D8B12E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{8315492C-99B7-4496-8BBA-6A10F97535C8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{8315492C-99B7-4496-8BBA-6A10F97535C8}"/>
   </bookViews>
   <sheets>
     <sheet name="A" sheetId="1" r:id="rId1"/>
     <sheet name="S" sheetId="3" r:id="rId2"/>
-    <sheet name="O" sheetId="4" r:id="rId3"/>
-    <sheet name="U" sheetId="2" r:id="rId4"/>
+    <sheet name="DATE" sheetId="5" r:id="rId3"/>
+    <sheet name="O" sheetId="4" r:id="rId4"/>
+    <sheet name="U" sheetId="2" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="20">
   <si>
     <t>FUNCIONES</t>
   </si>
@@ -92,6 +93,15 @@
   </si>
   <si>
     <t>Convierte el primer byte de un string a un valor entre 0 y 255 (TABLA ASCII). Devuelve un entero (int).</t>
+  </si>
+  <si>
+    <t>getdate()</t>
+  </si>
+  <si>
+    <t>Te devuelve un array que contiene el mes, día, año, etc; (el actual si no pones nada).</t>
+  </si>
+  <si>
+    <t>Para llamar a un elemento del array tendremos que poner el ($nombreArray)[$clave].</t>
   </si>
 </sst>
 </file>
@@ -148,7 +158,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -184,11 +194,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </left>
+      <right style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </right>
+      <top style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </left>
+      <right style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </left>
+      <right style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -210,10 +257,34 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -229,6 +300,62 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>55516</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>768949</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>5035</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagen 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D0EFB052-A4BD-D723-2C0A-6AF224E16D9A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10357756" y="167640"/>
+          <a:ext cx="3090873" cy="3129235"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="accent4">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -542,10 +669,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11"/>
+      <c r="B1" s="12"/>
       <c r="C1" s="2" t="s">
         <v>3</v>
       </c>
@@ -584,7 +711,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D22C9F0F-F9E4-4941-9DD8-DFF703F4E203}">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -595,10 +722,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11"/>
+      <c r="B1" s="12"/>
       <c r="C1" s="2" t="s">
         <v>3</v>
       </c>
@@ -634,6 +761,71 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5CCF04C-0835-4D58-92E3-D943C359D4B3}">
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="92.5546875" customWidth="1"/>
+    <col min="3" max="3" width="46.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="12"/>
+      <c r="C1" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="17"/>
+      <c r="B3" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="16"/>
+    </row>
+    <row r="4" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="17"/>
+      <c r="B4" s="19"/>
+      <c r="C4" s="15"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="14"/>
+      <c r="B5" s="20"/>
+      <c r="C5" s="16"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="B4:B5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95E203DD-BEC2-40CC-AD0D-ACC61D22C54F}">
   <dimension ref="A1:C7"/>
   <sheetViews>
@@ -648,10 +840,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11"/>
+      <c r="B1" s="12"/>
       <c r="C1" s="2" t="s">
         <v>3</v>
       </c>
@@ -673,7 +865,7 @@
       <c r="C3" s="8"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B7" s="12"/>
+      <c r="B7" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -684,7 +876,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81880F9F-E8BC-44FD-B21E-C015600B492D}">
   <dimension ref="A1:C22"/>
   <sheetViews>
@@ -699,10 +891,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11"/>
+      <c r="B1" s="12"/>
       <c r="C1" s="2" t="s">
         <v>3</v>
       </c>

--- a/Archivos/Funciones.xlsx
+++ b/Archivos/Funciones.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\DES\Archivos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2DC2A3D-F82D-4F89-A4F5-397C64D8B12E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D37F6666-0684-42A9-AFB8-7B6A0301E247}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{8315492C-99B7-4496-8BBA-6A10F97535C8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{8315492C-99B7-4496-8BBA-6A10F97535C8}"/>
   </bookViews>
   <sheets>
     <sheet name="A" sheetId="1" r:id="rId1"/>
     <sheet name="S" sheetId="3" r:id="rId2"/>
-    <sheet name="DATE" sheetId="5" r:id="rId3"/>
-    <sheet name="O" sheetId="4" r:id="rId4"/>
-    <sheet name="U" sheetId="2" r:id="rId5"/>
+    <sheet name="O" sheetId="4" r:id="rId3"/>
+    <sheet name="U" sheetId="2" r:id="rId4"/>
+    <sheet name="DATE" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="24">
   <si>
     <t>FUNCIONES</t>
   </si>
@@ -102,6 +102,18 @@
   </si>
   <si>
     <t>Para llamar a un elemento del array tendremos que poner el ($nombreArray)[$clave].</t>
+  </si>
+  <si>
+    <t>strtotime</t>
+  </si>
+  <si>
+    <t>Convierte una descripción de fecha/hora textual en Inglés a una fecha Unix</t>
+  </si>
+  <si>
+    <t>date([formato de la fecha], $timestamp (es un número entero, time())).                                                                      Por ejemplo                                                                          $fecha = "12/01/2003 17:52";                                                                     //utilizo strtotime para convertir la cadena a un entero que corresponde con la fecha/hora                            $fecha = strtotime(12/01/2003 17:52);                         echo $fecha (obtenemos =&gt; 1070297520);                        //Ahora ya hemos obtenido el timestamp (int) que necesitábamos para una fecha en concreto                                                               date("d/m/Y H:i:s", $fecha);</t>
+  </si>
+  <si>
+    <t>$fecha = strtotime(12/01/2003 17:52);                         echo $fecha (obtenemos =&gt; 1070297520);</t>
   </si>
 </sst>
 </file>
@@ -264,26 +276,26 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -306,16 +318,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>55516</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>17416</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>167640</xdr:rowOff>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>768949</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>5035</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>730849</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>43135</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -338,7 +350,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10357756" y="167640"/>
+          <a:off x="11112136" y="38100"/>
           <a:ext cx="3090873" cy="3129235"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -658,7 +670,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -677,27 +689,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A3" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>7</v>
-      </c>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="5"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="8"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="9"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -709,10 +709,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D22C9F0F-F9E4-4941-9DD8-DFF703F4E203}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -752,80 +752,34 @@
         <v>13</v>
       </c>
     </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="17"/>
+      <c r="B5" s="19"/>
+      <c r="C5" s="16"/>
+    </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="4">
     <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5CCF04C-0835-4D58-92E3-D943C359D4B3}">
-  <dimension ref="A1:C5"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="2" width="92.5546875" customWidth="1"/>
-    <col min="3" max="3" width="46.109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" s="15" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="17"/>
-      <c r="B3" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" s="16"/>
-    </row>
-    <row r="4" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="17"/>
-      <c r="B4" s="19"/>
-      <c r="C4" s="15"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="14"/>
-      <c r="B5" s="20"/>
-      <c r="C5" s="16"/>
-    </row>
-  </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="B4:B5"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95E203DD-BEC2-40CC-AD0D-ACC61D22C54F}">
   <dimension ref="A1:C7"/>
   <sheetViews>
@@ -876,12 +830,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81880F9F-E8BC-44FD-B21E-C015600B492D}">
   <dimension ref="A1:C22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1011,4 +965,79 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5CCF04C-0835-4D58-92E3-D943C359D4B3}">
+  <dimension ref="A1:C11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="92.5546875" customWidth="1"/>
+    <col min="3" max="3" width="46.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="12"/>
+      <c r="C1" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="159.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="14"/>
+      <c r="B3" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="16"/>
+    </row>
+    <row r="4" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="17"/>
+      <c r="B5" s="19"/>
+      <c r="C5" s="16"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C11" s="11"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="B4:B5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/Archivos/Funciones.xlsx
+++ b/Archivos/Funciones.xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\DES\Archivos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D37F6666-0684-42A9-AFB8-7B6A0301E247}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65FCA191-85C1-4A05-A86C-96308B889734}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{8315492C-99B7-4496-8BBA-6A10F97535C8}"/>
+    <workbookView xWindow="2652" yWindow="2652" windowWidth="11424" windowHeight="8964" xr2:uid="{8315492C-99B7-4496-8BBA-6A10F97535C8}"/>
   </bookViews>
   <sheets>
-    <sheet name="A" sheetId="1" r:id="rId1"/>
-    <sheet name="S" sheetId="3" r:id="rId2"/>
-    <sheet name="O" sheetId="4" r:id="rId3"/>
-    <sheet name="U" sheetId="2" r:id="rId4"/>
-    <sheet name="DATE" sheetId="5" r:id="rId5"/>
+    <sheet name="Arrays" sheetId="1" r:id="rId1"/>
+    <sheet name="DATE" sheetId="5" r:id="rId2"/>
+    <sheet name="Strs" sheetId="6" r:id="rId3"/>
+    <sheet name="S" sheetId="3" r:id="rId4"/>
+    <sheet name="O" sheetId="4" r:id="rId5"/>
+    <sheet name="U" sheetId="2" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="32">
   <si>
     <t>FUNCIONES</t>
   </si>
@@ -114,6 +115,74 @@
   </si>
   <si>
     <t>$fecha = strtotime(12/01/2003 17:52);                         echo $fecha (obtenemos =&gt; 1070297520);</t>
+  </si>
+  <si>
+    <t>&lt;?php
+$input_array = array("FirSt" =&gt; 1, "SecOnd" =&gt; 4);
+print_r(array_change_key_case($input_array, CASE_UPPER));
+?&gt;</t>
+  </si>
+  <si>
+    <t>Cambia a mayúsculas o minúsculas todas las claves en un array. CASE_UPPER O CASE_LOWER(DEFECTO)</t>
+  </si>
+  <si>
+    <t>array_chunk()</t>
+  </si>
+  <si>
+    <t>array_change_key_case()</t>
+  </si>
+  <si>
+    <t>Divide un array en fragmentos. Se le pasa como parámetros, el array, la cantidad de elementos que que 
+queremos por cada fragmento y podemos añadir un tercer parámetro que hará que se preserven las claves, 
+por defecto es false</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+&lt;?php
+$input_array = array('a', 'b', 'c', 'd', 'e');
+print_r(array_chunk($input_array, 2));
+print_r(array_chunk($input_array, 2, true));
+?&gt;
+Array
+(
+    [0] =&gt; Array
+        (
+            [0] =&gt; a
+            [1] =&gt; b
+        )
+    [1] =&gt; Array
+        (
+            [0] =&gt; c
+            [1] =&gt; d
+        )
+    [2] =&gt; Array
+        (
+            [0] =&gt; e
+        )
+)
+Array
+(
+    [0] =&gt; Array
+        (
+            [0] =&gt; a
+            [1] =&gt; b
+        )
+    [1] =&gt; Array
+        (
+            [2] =&gt; c
+            [3] =&gt; d
+        )
+    [2] =&gt; Array
+        (
+            [4] =&gt; e
+        )
+)</t>
+  </si>
+  <si>
+    <t>array_combine()</t>
+  </si>
+  <si>
+    <t>Crea un nuevo array, usando una matriz para las claves y otra para sus valores. Devuelve un array</t>
   </si>
 </sst>
 </file>
@@ -170,7 +239,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -243,11 +312,37 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="9" tint="0.79998168889431442"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="9" tint="0.79998168889431442"/>
+      </top>
+      <bottom style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="9" tint="0.79998168889431442"/>
+      </right>
+      <top style="thin">
+        <color theme="9" tint="0.79998168889431442"/>
+      </top>
+      <bottom style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -270,32 +365,44 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -667,47 +774,251 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE4C0BA5-67CA-4BF0-AF87-5886AC2AB380}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" topLeftCell="B3" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12" customWidth="1"/>
-    <col min="2" max="2" width="61.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.5546875" customWidth="1"/>
+    <col min="1" max="1" width="21.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="89.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12"/>
+      <c r="B1" s="22"/>
       <c r="C1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="5"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="8"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="9"/>
-      <c r="B3" s="10"/>
-      <c r="C3" s="8"/>
+    <row r="2" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="8"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="5"/>
+      <c r="B5" s="23"/>
+      <c r="C5" s="8"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="5"/>
+      <c r="B6" s="23"/>
+      <c r="C6" s="8"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="5"/>
+      <c r="B7" s="23"/>
+      <c r="C7" s="8"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="5"/>
+      <c r="B8" s="23"/>
+      <c r="C8" s="8"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="5"/>
+      <c r="B9" s="23"/>
+      <c r="C9" s="8"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="5"/>
+      <c r="B10" s="23"/>
+      <c r="C10" s="8"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="5"/>
+      <c r="B11" s="23"/>
+      <c r="C11" s="8"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="5"/>
+      <c r="B12" s="23"/>
+      <c r="C12" s="8"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="5"/>
+      <c r="B13" s="23"/>
+      <c r="C13" s="8"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="24"/>
+      <c r="B14" s="24"/>
+      <c r="C14" s="24"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="24"/>
+      <c r="B15" s="24"/>
+      <c r="C15" s="24"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="24"/>
+      <c r="B16" s="24"/>
+      <c r="C16" s="24"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="24"/>
+      <c r="B17" s="24"/>
+      <c r="C17" s="24"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="24"/>
+      <c r="B18" s="24"/>
+      <c r="C18" s="24"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="24"/>
+      <c r="B19" s="24"/>
+      <c r="C19" s="24"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="24"/>
+      <c r="B20" s="24"/>
+      <c r="C20" s="24"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="24"/>
+      <c r="B21" s="24"/>
+      <c r="C21" s="24"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="24"/>
+      <c r="B22" s="24"/>
+      <c r="C22" s="24"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="24"/>
+      <c r="B23" s="24"/>
+      <c r="C23" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5CCF04C-0835-4D58-92E3-D943C359D4B3}">
+  <dimension ref="A1:C11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="92.5546875" customWidth="1"/>
+    <col min="3" max="3" width="46.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="159.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="14"/>
+      <c r="B3" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="19"/>
+    </row>
+    <row r="4" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="15"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="19"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C11" s="11"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="B4:B5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15781DA7-1F29-4D25-BD3A-E2070CCC16C8}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D22C9F0F-F9E4-4941-9DD8-DFF703F4E203}">
   <dimension ref="A1:C5"/>
   <sheetViews>
@@ -722,10 +1033,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12"/>
+      <c r="B1" s="13"/>
       <c r="C1" s="2" t="s">
         <v>3</v>
       </c>
@@ -756,17 +1067,17 @@
       <c r="A4" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="18" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="17"/>
-      <c r="B5" s="19"/>
-      <c r="C5" s="16"/>
+      <c r="A5" s="15"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -779,7 +1090,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95E203DD-BEC2-40CC-AD0D-ACC61D22C54F}">
   <dimension ref="A1:C7"/>
   <sheetViews>
@@ -794,10 +1105,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12"/>
+      <c r="B1" s="13"/>
       <c r="C1" s="2" t="s">
         <v>3</v>
       </c>
@@ -830,11 +1141,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81880F9F-E8BC-44FD-B21E-C015600B492D}">
   <dimension ref="A1:C22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A6" workbookViewId="0">
       <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
@@ -845,10 +1156,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12"/>
+      <c r="B1" s="13"/>
       <c r="C1" s="2" t="s">
         <v>3</v>
       </c>
@@ -965,79 +1276,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5CCF04C-0835-4D58-92E3-D943C359D4B3}">
-  <dimension ref="A1:C11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="2" width="92.5546875" customWidth="1"/>
-    <col min="3" max="3" width="46.109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" s="15" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="159.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="14"/>
-      <c r="B3" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" s="16"/>
-    </row>
-    <row r="4" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="15" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="17"/>
-      <c r="B5" s="19"/>
-      <c r="C5" s="16"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C11" s="11"/>
-    </row>
-  </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="B4:B5"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
 </file>
--- a/Archivos/Funciones.xlsx
+++ b/Archivos/Funciones.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\DES\Archivos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65FCA191-85C1-4A05-A86C-96308B889734}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AA3102B-DE90-4922-AA11-2DC407DE0C7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2652" yWindow="2652" windowWidth="11424" windowHeight="8964" xr2:uid="{8315492C-99B7-4496-8BBA-6A10F97535C8}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="61">
   <si>
     <t>FUNCIONES</t>
   </si>
@@ -184,12 +184,147 @@
   <si>
     <t>Crea un nuevo array, usando una matriz para las claves y otra para sus valores. Devuelve un array</t>
   </si>
+  <si>
+    <t>$alphabet = array_combine(range("a", "z"), range(1, 26));  foreach($alphabet as $letter =&gt; $pos)
+        echo "$letter: $pos &lt;br/&gt;";</t>
+  </si>
+  <si>
+    <t>array_count_values()</t>
+  </si>
+  <si>
+    <t>Cuenta todos los valores de un array.
+array_count_values() retorna un array usando los valores de la matriz array como keys y su frecuencia en array como valores.</t>
+  </si>
+  <si>
+    <t>&lt;?php
+$array = array(1, "hello", 1, "world", "hello");
+print_r(array_count_values($array));
+?&gt;
+Se muestra--&gt; 1:2 hello:2 world:1</t>
+  </si>
+  <si>
+    <t>array_unique()</t>
+  </si>
+  <si>
+    <t>array_values()</t>
+  </si>
+  <si>
+    <t>count_chars()</t>
+  </si>
+  <si>
+    <t>count()</t>
+  </si>
+  <si>
+    <t>Elimina valores duplicados de un array y devuelve el array sin valores duplicados</t>
+  </si>
+  <si>
+    <t>Devuelve todos los valores de un array y los indexa numéricamente al array.</t>
+  </si>
+  <si>
+    <t>   
+$prueba = [1, "hello", 1, "world", "hello"];    
+$prueba = array_unique($prueba);
+RESULTADO -&gt; array(3) { [0]=&gt; int(1) [1]=&gt; string(5) "hello" [3]=&gt; string(5) "world" }</t>
+  </si>
+  <si>
+    <t>&lt;?php
+$array = array("size" =&gt; "XL", "color" =&gt; "gold");
+print_r(array_values($array));
+?&gt;
+Resultado -&gt; array([0]=&gt;XL [1]=&gt;gold)</t>
+  </si>
+  <si>
+    <t>Cuenta todos los elementos de un array o algo de un objeto</t>
+  </si>
+  <si>
+    <t>&lt;?php
+$a[0] = 1;
+$a[1] = 3;
+$a[2] = 5;
+var_dump(count($a));
+result--Z int(3)</t>
+  </si>
+  <si>
+    <t>devuelve un array dado la vuelta, es decir, las claves de array se convierten en valores y los valores de array se convierten en claves.</t>
+  </si>
+  <si>
+    <t>array_flip()</t>
+  </si>
+  <si>
+    <t>$entrada = array("naranjas", "manzanas", "peras");
+$intercambio = array_flip($entrada);
+print_r($intercambio);
+array(0,1,2)</t>
+  </si>
+  <si>
+    <t>array_keys()</t>
+  </si>
+  <si>
+    <t>//Para que saque todas las claves
+$array = array(0 =&gt; 100, "color" =&gt; "red");
+print_r(array_keys($array));
+//result -&gt; array(0, color);</t>
+  </si>
+  <si>
+    <t>array_key_exists()</t>
+  </si>
+  <si>
+    <t>Comprueba que la clave dada exista en el array. El primer parámetro es la clave a buscar y el 
+segundo el array. Devuelve true si la encuentra</t>
+  </si>
+  <si>
+    <t>&lt;?php
+$search_array = array('first' =&gt; 1, 'second' =&gt; 4);
+if (array_key_exists('first', $search_array)) {
+    echo "The 'first' element is in the array";
+}
+?&gt;</t>
+  </si>
+  <si>
+    <t>in_array()</t>
+  </si>
+  <si>
+    <t>&lt;?php
+$os = array("Mac", "NT", "Irix", "Linux");
+if (in_array("Irix", $os)) {
+    echo "Existe Irix";
+}
+if (in_array("mac", $os)) {
+    echo "Existe mac";
+}
+?&gt;</t>
+  </si>
+  <si>
+    <t>Comprueba si un valor existe en un array.  El primer parámetro es lo que se quiere buscar, el segundo el array y el tercero (opcional) es para indicar si queremos que sea estricto y compruebe también el
+ tipo (===). Funciona también en asociativos.
+Diferencia entre mayúsculas y minúsculas. CUIDADO</t>
+  </si>
+  <si>
+    <t>array_search()</t>
+  </si>
+  <si>
+    <t>Busca un valor determinado en el array y devuleve la primera clave que corresponda en caso de 
+que exista. Primer parámetro lo que queremos buscar, el segundo es el array y el tercero si queremos
+que sea estricto. 
+Devuelve la clave si se encuentra en el array, si no, devolverá false</t>
+  </si>
+  <si>
+    <t>Devuelve todas las claves de un array o un subconjunto de claves de un array.
+Si se especifica el parámetro search_value, solamente serán devueltas las claves para ese valor. De lo contrario, son devueltas todas las claves de array. (este sería el segundo parámetro, el primero
+es el array en el que queremos buscar)</t>
+  </si>
+  <si>
+    <t>&lt;?php
+$array = array(0 =&gt; 'azul', 1 =&gt; 'rojo', 2 =&gt; 'verde', 3 =&gt; 'rojo');
+$clave = array_search('verde', $array); // $clave = 2;
+$clave = array_search('rojo', $array);  // $clave = 1;</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -218,8 +353,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -235,6 +377,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -342,7 +496,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -403,6 +557,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -774,10 +940,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE4C0BA5-67CA-4BF0-AF87-5886AC2AB380}">
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B3" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -818,79 +984,137 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
+    <row r="4" spans="1:3" ht="98.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="28" t="s">
         <v>30</v>
       </c>
       <c r="B4" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="8"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="5"/>
-      <c r="B5" s="23"/>
-      <c r="C5" s="8"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="5"/>
-      <c r="B6" s="23"/>
-      <c r="C6" s="8"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="5"/>
-      <c r="B7" s="23"/>
-      <c r="C7" s="8"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="5"/>
-      <c r="B8" s="23"/>
-      <c r="C8" s="8"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="5"/>
-      <c r="B9" s="23"/>
-      <c r="C9" s="8"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="5"/>
-      <c r="B10" s="23"/>
-      <c r="C10" s="8"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="5"/>
-      <c r="B11" s="23"/>
-      <c r="C11" s="8"/>
+      <c r="C4" s="8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="135.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="127.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="72" x14ac:dyDescent="0.3">
+      <c r="A8" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="B8" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="B9" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="144" x14ac:dyDescent="0.3">
+      <c r="A10" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="B10" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="141.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B11" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="5"/>
-      <c r="B12" s="23"/>
-      <c r="C12" s="8"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="5"/>
-      <c r="B13" s="23"/>
-      <c r="C13" s="8"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="24"/>
-      <c r="B14" s="24"/>
-      <c r="C14" s="24"/>
+      <c r="A12" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12" s="26"/>
+      <c r="C12" s="27"/>
+    </row>
+    <row r="13" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A13" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B13" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A14" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B14" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="24"/>
-      <c r="B15" s="24"/>
-      <c r="C15" s="24"/>
+      <c r="A15" s="5"/>
+      <c r="B15" s="23"/>
+      <c r="C15" s="8"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="24"/>
-      <c r="B16" s="24"/>
-      <c r="C16" s="24"/>
+      <c r="A16" s="5"/>
+      <c r="B16" s="23"/>
+      <c r="C16" s="8"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="24"/>
-      <c r="B17" s="24"/>
-      <c r="C17" s="24"/>
+      <c r="A17" s="5"/>
+      <c r="B17" s="23"/>
+      <c r="C17" s="8"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="24"/>
@@ -921,6 +1145,26 @@
       <c r="A23" s="24"/>
       <c r="B23" s="24"/>
       <c r="C23" s="24"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="24"/>
+      <c r="B24" s="24"/>
+      <c r="C24" s="24"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="24"/>
+      <c r="B25" s="24"/>
+      <c r="C25" s="24"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" s="24"/>
+      <c r="B26" s="24"/>
+      <c r="C26" s="24"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" s="24"/>
+      <c r="B27" s="24"/>
+      <c r="C27" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Archivos/Funciones.xlsx
+++ b/Archivos/Funciones.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\DES\Archivos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AA3102B-DE90-4922-AA11-2DC407DE0C7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F41141C-874C-40B4-854D-26D7DC4A742C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2652" yWindow="2652" windowWidth="11424" windowHeight="8964" xr2:uid="{8315492C-99B7-4496-8BBA-6A10F97535C8}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="73">
   <si>
     <t>FUNCIONES</t>
   </si>
@@ -318,6 +318,89 @@
 $array = array(0 =&gt; 'azul', 1 =&gt; 'rojo', 2 =&gt; 'verde', 3 =&gt; 'rojo');
 $clave = array_search('verde', $array); // $clave = 2;
 $clave = array_search('rojo', $array);  // $clave = 1;</t>
+  </si>
+  <si>
+    <t>array_pad()</t>
+  </si>
+  <si>
+    <t>Devuelve una copia del array rellenada al tamaño especificado por el size on el valor value. 
+Si size es +, su valor se rellena a la derecha. Si es negativo, a la izq.
+Si el valor absoluto del size es igual o menor a la longitud de array, no se lleva a cabo el relleno.
+Primer parámetro array, segundo size, tercero valor.</t>
+  </si>
+  <si>
+    <t>&lt;?php
+$input = array(12, 10, 9);
+$result = array_pad($input, 5, 0);
+// el resultado es array(12, 10, 9, 0, 0)
+$result = array_pad($input, -7, -1);
+// el resultado es array(-1, -1, -1, -1, 12, 10, 9)
+$result = array_pad($input, 2, "noop");
+// sin relleno
+?&gt;</t>
+  </si>
+  <si>
+    <t>array_pop()</t>
+  </si>
+  <si>
+    <t>Extrae el último elemento del final del array y lo devuelve, acortando el array con un elemento
+menos.</t>
+  </si>
+  <si>
+    <t>&lt;?php
+$stack = array("naranja", "plátano", "manzana", "frambuesa");
+$fruit = array_pop($stack);
+print_r($stack);
+?&gt;
+Array
+(
+    [0] =&gt; naranja
+    [1] =&gt; plátano
+    [2] =&gt; manzana
+)</t>
+  </si>
+  <si>
+    <t>array_shift()</t>
+  </si>
+  <si>
+    <t>&lt;?php
+$stack = array("naranja", "plátano", "manzana", "frambuesa");
+$fruit = array_shift($stack);
+print_r($stack);
+?&gt;
+Array
+(
+    [0] =&gt; plátano
+    [1] =&gt; manzana
+    [2] =&gt; frambuesa
+)</t>
+  </si>
+  <si>
+    <t>Extrae el primer elemento de un array y lo devuelve, acortando el array un elemento y corriendo el array hacia abajo. Todas las claves numéricas serán modificadas para que empiece contando desde cero mientras que los valores de las claves no se verán afectadas.
+Notice:
+the complexity of array_pop() is O(1).
+the complexity of array_shift() is O(n).
+array_shift() requires a re-index process on the array, so it has to run over all the elements and index them.</t>
+  </si>
+  <si>
+    <t>array_unshift()</t>
+  </si>
+  <si>
+    <t>Añade los elementos pasados como argumentos al inicio del array. Todas las claves numéricas serán modificadas, empezando a contar desde cero mientras que las claves literales no serán cambiadas</t>
+  </si>
+  <si>
+    <t>&lt;?php
+$cola = array("naranja", "banana");
+array_unshift($cola, "manzana", "frambuesa");
+print_r($cola);
+?&gt;
+Array
+(
+    [0] =&gt; manzana
+    [1] =&gt; frambuesa
+    [2] =&gt; naranja
+    [3] =&gt; banana
+)</t>
   </si>
 </sst>
 </file>
@@ -522,12 +605,45 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -535,39 +651,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -942,8 +1025,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE4C0BA5-67CA-4BF0-AF87-5886AC2AB380}">
   <dimension ref="A1:C27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -954,10 +1037,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22"/>
+      <c r="B1" s="20"/>
       <c r="C1" s="2" t="s">
         <v>3</v>
       </c>
@@ -977,7 +1060,7 @@
       <c r="A3" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="13" t="s">
         <v>28</v>
       </c>
       <c r="C3" s="8" t="s">
@@ -985,10 +1068,10 @@
       </c>
     </row>
     <row r="4" spans="1:3" ht="98.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="28" t="s">
+      <c r="A4" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="B4" s="23" t="s">
+      <c r="B4" s="13" t="s">
         <v>31</v>
       </c>
       <c r="C4" s="8" t="s">
@@ -996,10 +1079,10 @@
       </c>
     </row>
     <row r="5" spans="1:3" ht="135.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="28" t="s">
+      <c r="A5" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="B5" s="23" t="s">
+      <c r="B5" s="13" t="s">
         <v>34</v>
       </c>
       <c r="C5" s="8" t="s">
@@ -1010,7 +1093,7 @@
       <c r="A6" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B6" s="23" t="s">
+      <c r="B6" s="13" t="s">
         <v>40</v>
       </c>
       <c r="C6" s="8" t="s">
@@ -1021,7 +1104,7 @@
       <c r="A7" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B7" s="23" t="s">
+      <c r="B7" s="13" t="s">
         <v>41</v>
       </c>
       <c r="C7" s="8" t="s">
@@ -1029,10 +1112,10 @@
       </c>
     </row>
     <row r="8" spans="1:3" ht="72" x14ac:dyDescent="0.3">
-      <c r="A8" s="28" t="s">
+      <c r="A8" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="B8" s="23" t="s">
+      <c r="B8" s="13" t="s">
         <v>59</v>
       </c>
       <c r="C8" s="8" t="s">
@@ -1040,10 +1123,10 @@
       </c>
     </row>
     <row r="9" spans="1:3" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="28" t="s">
+      <c r="A9" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="B9" s="23" t="s">
+      <c r="B9" s="13" t="s">
         <v>52</v>
       </c>
       <c r="C9" s="8" t="s">
@@ -1051,10 +1134,10 @@
       </c>
     </row>
     <row r="10" spans="1:3" ht="144" x14ac:dyDescent="0.3">
-      <c r="A10" s="28" t="s">
+      <c r="A10" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="B10" s="23" t="s">
+      <c r="B10" s="13" t="s">
         <v>56</v>
       </c>
       <c r="C10" s="8" t="s">
@@ -1065,7 +1148,7 @@
       <c r="A11" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="B11" s="23" t="s">
+      <c r="B11" s="13" t="s">
         <v>58</v>
       </c>
       <c r="C11" s="8" t="s">
@@ -1073,17 +1156,17 @@
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="25" t="s">
+      <c r="A12" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="B12" s="26"/>
-      <c r="C12" s="27"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="17"/>
     </row>
     <row r="13" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="B13" s="23" t="s">
+      <c r="B13" s="13" t="s">
         <v>44</v>
       </c>
       <c r="C13" s="8" t="s">
@@ -1094,77 +1177,101 @@
       <c r="A14" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="B14" s="23" t="s">
+      <c r="B14" s="13" t="s">
         <v>46</v>
       </c>
       <c r="C14" s="8" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="5"/>
-      <c r="B15" s="23"/>
-      <c r="C15" s="8"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="5"/>
-      <c r="B16" s="23"/>
-      <c r="C16" s="8"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="5"/>
-      <c r="B17" s="23"/>
-      <c r="C17" s="8"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="24"/>
-      <c r="B18" s="24"/>
-      <c r="C18" s="24"/>
+    <row r="15" spans="1:3" ht="230.4" x14ac:dyDescent="0.3">
+      <c r="A15" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="201.6" x14ac:dyDescent="0.3">
+      <c r="A16" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="201.6" x14ac:dyDescent="0.3">
+      <c r="A17" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B17" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="216" x14ac:dyDescent="0.3">
+      <c r="A18" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B18" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="24"/>
-      <c r="B19" s="24"/>
-      <c r="C19" s="24"/>
+      <c r="A19" s="5"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="8"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="24"/>
-      <c r="B20" s="24"/>
-      <c r="C20" s="24"/>
+      <c r="A20" s="5"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="8"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="24"/>
-      <c r="B21" s="24"/>
-      <c r="C21" s="24"/>
+      <c r="A21" s="5"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="8"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="24"/>
-      <c r="B22" s="24"/>
-      <c r="C22" s="24"/>
+      <c r="A22" s="5"/>
+      <c r="B22" s="13"/>
+      <c r="C22" s="8"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="24"/>
-      <c r="B23" s="24"/>
-      <c r="C23" s="24"/>
+      <c r="A23" s="5"/>
+      <c r="B23" s="13"/>
+      <c r="C23" s="8"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="24"/>
-      <c r="B24" s="24"/>
-      <c r="C24" s="24"/>
+      <c r="A24" s="5"/>
+      <c r="B24" s="13"/>
+      <c r="C24" s="8"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" s="24"/>
-      <c r="B25" s="24"/>
-      <c r="C25" s="24"/>
+      <c r="A25" s="5"/>
+      <c r="B25" s="13"/>
+      <c r="C25" s="8"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" s="24"/>
-      <c r="B26" s="24"/>
-      <c r="C26" s="24"/>
+      <c r="A26" s="14"/>
+      <c r="B26" s="14"/>
+      <c r="C26" s="14"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" s="24"/>
-      <c r="B27" s="24"/>
-      <c r="C27" s="24"/>
+      <c r="A27" s="14"/>
+      <c r="B27" s="14"/>
+      <c r="C27" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1190,47 +1297,47 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13"/>
+      <c r="B1" s="21"/>
       <c r="C1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="22" t="s">
         <v>17</v>
       </c>
       <c r="B2" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="24" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="159.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="14"/>
+      <c r="A3" s="23"/>
       <c r="B3" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="19"/>
+      <c r="C3" s="25"/>
     </row>
     <row r="4" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="18" t="s">
+      <c r="C4" s="24" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="15"/>
-      <c r="B5" s="17"/>
-      <c r="C5" s="19"/>
+      <c r="A5" s="26"/>
+      <c r="B5" s="28"/>
+      <c r="C5" s="25"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C11" s="11"/>
@@ -1277,10 +1384,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13"/>
+      <c r="B1" s="21"/>
       <c r="C1" s="2" t="s">
         <v>3</v>
       </c>
@@ -1308,20 +1415,20 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="18" t="s">
+      <c r="C4" s="24" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="15"/>
-      <c r="B5" s="17"/>
-      <c r="C5" s="19"/>
+      <c r="A5" s="26"/>
+      <c r="B5" s="28"/>
+      <c r="C5" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -1349,10 +1456,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13"/>
+      <c r="B1" s="21"/>
       <c r="C1" s="2" t="s">
         <v>3</v>
       </c>
@@ -1400,10 +1507,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13"/>
+      <c r="B1" s="21"/>
       <c r="C1" s="2" t="s">
         <v>3</v>
       </c>

--- a/Archivos/Funciones.xlsx
+++ b/Archivos/Funciones.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\DES\Archivos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F41141C-874C-40B4-854D-26D7DC4A742C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39A1D534-4A99-499E-9D86-265D23B5C2CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2652" yWindow="2652" windowWidth="11424" windowHeight="8964" xr2:uid="{8315492C-99B7-4496-8BBA-6A10F97535C8}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="98">
   <si>
     <t>FUNCIONES</t>
   </si>
@@ -401,6 +401,142 @@
     [2] =&gt; naranja
     [3] =&gt; banana
 )</t>
+  </si>
+  <si>
+    <t>array_push()</t>
+  </si>
+  <si>
+    <t>Inserta uno o más elementos al final de un array, el tamaño del array será incrementado por el 
+número de variables insertadas.
+Efecto similar a $array[] = $var; por lo que es mejor usarlo cuando es más de un elemento.</t>
+  </si>
+  <si>
+    <t>&lt;?php
+$pila = array("naranja", "plátano");
+array_push($pila, "manzana", "arándano");
+print_r($pila);
+?&gt;
+Array
+(
+    [0] =&gt; naranja
+    [1] =&gt; plátano
+    [2] =&gt; manzana
+    [3] =&gt; arándano
+)</t>
+  </si>
+  <si>
+    <t>array_rand()</t>
+  </si>
+  <si>
+    <t>Selecciona uno o más valores aleatorios de un array y devuelve la clase o claves de dichos valores.
+El primer parámetro es el array, el segundo el número de entradas que deben de seleccionarse.
+Si es para uno solo, se devuelve una entrada aleatorio. Si es para varios, se devuelve un array con 
+las claves de las entradas aleatorias</t>
+  </si>
+  <si>
+    <t>&lt;?php
+$entrada = array("Neo", "Morpheus", "Trinity", "Cypher", "Tank");
+$claves_aleatorias = array_rand($entrada, 2);
+echo $entrada[$claves_aleatorias[0]] . "\n";
+echo $entrada[$claves_aleatorias[1]] . "\n";
+?&gt;</t>
+  </si>
+  <si>
+    <t>array_reverse()</t>
+  </si>
+  <si>
+    <t>Devuelve un array con los elementos en orden inverso. Aparte del array, puede recibir un boolean como argumento por si queremos mantener las llaves (solo numéricas), por defecto, no lo hace</t>
+  </si>
+  <si>
+    <t>&lt;?php
+$input  = array("php", 4.0, array("green", "red"));
+$reversed = array_reverse($input);
+Array
+(
+    [0] =&gt; Array
+        (
+            [0] =&gt; green
+            [1] =&gt; red
+        )
+    [1] =&gt; 4
+    [2] =&gt; php
+)</t>
+  </si>
+  <si>
+    <t>reset()</t>
+  </si>
+  <si>
+    <t>current()</t>
+  </si>
+  <si>
+    <t>next()</t>
+  </si>
+  <si>
+    <t>&lt;?php
+$array = array('paso uno', 'paso dos', 'paso tres', 'paso cuatro');
+// Por defecto, el puntero está en el primer elemento
+echo current($array) . "&lt;br /&gt;\n"; // "paso uno"
+// Omite dos pasos
+next($array);
+next($array);
+echo current($array) . "&lt;br /&gt;\n"; 
+// "paso tres"
+// Resetea el puntero, empieza otra vez en paso uno
+reset($array);
+echo current($array) . "&lt;br /&gt;\n"; // "paso uno"
+?&gt;</t>
+  </si>
+  <si>
+    <t>Rebobina el puntero interno de un array al primer elemento y devuelve el valor del primer elemento
+del array. Si está vacío devuelve false.</t>
+  </si>
+  <si>
+    <t>Cada array tiene un elemento interno a su elemento "actual", que es iniciado deesde el primer 
+elemento insertado en el array.</t>
+  </si>
+  <si>
+    <t>end()</t>
+  </si>
+  <si>
+    <t>Avanza el puntero interno a un lugar a delante antes de devolver el valor del elemento, es decir,
+devuelve el siguiente valor del array y avanza el puntero un lugar.
+Si no hay más elementos, devuelve false.</t>
+  </si>
+  <si>
+    <t>prev()</t>
+  </si>
+  <si>
+    <t>Realiza lo contrario a next()</t>
+  </si>
+  <si>
+    <t>Avanza el puntero interno del array hasta su último elemento y devuelve su valor.</t>
+  </si>
+  <si>
+    <t>shuffle()</t>
+  </si>
+  <si>
+    <t>&lt;?php
+$números = range(1, 20);
+shuffle($números);
+foreach ($números as $número) {
+    echo "$número ";
+}
+?&gt;</t>
+  </si>
+  <si>
+    <t>Mezcla un array, creando un orden aleatorio de sus elementos. Devuelve true si se ha podido y 
+false si no.
+Asignas nuevas claves a los elementos del array y elimina cualquier clave existente que haya sido 
+asignada en vez de reordenarlas.</t>
+  </si>
+  <si>
+    <t>array_fill()</t>
+  </si>
+  <si>
+    <t>Llena un array con x entradas del valor del parámetro value, las keys inician en el parámetro
+start_index.
+Parámetros -&gt; El primer índice del array retornado, el segundo es el numero de elementos que se quiere insertar y el terero el valor que se va usar para rellenarlo.
+En caso de que el primer índice del array retornado sea negativo, comenzará por el negativo y luego el resto comenzarán desde 0</t>
   </si>
 </sst>
 </file>
@@ -579,7 +715,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -652,6 +788,15 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1023,10 +1168,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE4C0BA5-67CA-4BF0-AF87-5886AC2AB380}">
-  <dimension ref="A1:C27"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1145,7 +1290,7 @@
       </c>
     </row>
     <row r="11" spans="1:3" ht="141.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="18" t="s">
         <v>57</v>
       </c>
       <c r="B11" s="13" t="s">
@@ -1195,87 +1340,158 @@
         <v>63</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="201.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="C16" s="8"/>
+    </row>
+    <row r="17" spans="1:3" ht="201.6" x14ac:dyDescent="0.3">
+      <c r="A17" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="B16" s="13" t="s">
+      <c r="B17" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="C16" s="8" t="s">
+      <c r="C17" s="8" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="201.6" x14ac:dyDescent="0.3">
-      <c r="A17" s="5" t="s">
+    <row r="18" spans="1:3" ht="216" x14ac:dyDescent="0.3">
+      <c r="A18" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="B18" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="201.6" x14ac:dyDescent="0.3">
+      <c r="A19" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="B17" s="13" t="s">
+      <c r="B19" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="C17" s="8" t="s">
+      <c r="C19" s="8" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="216" x14ac:dyDescent="0.3">
-      <c r="A18" s="5" t="s">
+    <row r="20" spans="1:3" ht="216" x14ac:dyDescent="0.3">
+      <c r="A20" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="B18" s="13" t="s">
+      <c r="B20" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="C18" s="8" t="s">
+      <c r="C20" s="8" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="5"/>
-      <c r="B19" s="13"/>
-      <c r="C19" s="8"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="5"/>
-      <c r="B20" s="13"/>
-      <c r="C20" s="8"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="5"/>
-      <c r="B21" s="13"/>
-      <c r="C21" s="8"/>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="5"/>
-      <c r="B22" s="13"/>
-      <c r="C22" s="8"/>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="5"/>
-      <c r="B23" s="13"/>
-      <c r="C23" s="8"/>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="5"/>
-      <c r="B24" s="13"/>
-      <c r="C24" s="8"/>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" s="5"/>
-      <c r="B25" s="13"/>
-      <c r="C25" s="8"/>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" s="14"/>
-      <c r="B26" s="14"/>
-      <c r="C26" s="14"/>
+    <row r="21" spans="1:3" ht="187.2" x14ac:dyDescent="0.3">
+      <c r="A21" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B21" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A22" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="B22" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="244.8" x14ac:dyDescent="0.3">
+      <c r="A23" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="B23" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B24" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="C24" s="29" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A25" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="B25" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="C25" s="30"/>
+    </row>
+    <row r="26" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A26" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="B26" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="C26" s="30"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" s="14"/>
-      <c r="B27" s="14"/>
-      <c r="C27" s="14"/>
+      <c r="A27" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="B27" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="C27" s="30"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="B28" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="C28" s="31"/>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" s="5"/>
+      <c r="B29" s="13"/>
+      <c r="C29" s="8"/>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" s="14"/>
+      <c r="B30" s="14"/>
+      <c r="C30" s="14"/>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" s="14"/>
+      <c r="B31" s="14"/>
+      <c r="C31" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C24:C28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>

--- a/Archivos/Funciones.xlsx
+++ b/Archivos/Funciones.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\DES\Archivos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39A1D534-4A99-499E-9D86-265D23B5C2CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67CF6295-AABF-48D8-9E4C-383B828D0B69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2652" yWindow="2652" windowWidth="11424" windowHeight="8964" xr2:uid="{8315492C-99B7-4496-8BBA-6A10F97535C8}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="110">
   <si>
     <t>FUNCIONES</t>
   </si>
@@ -266,9 +266,6 @@
 //result -&gt; array(0, color);</t>
   </si>
   <si>
-    <t>array_key_exists()</t>
-  </si>
-  <si>
     <t>Comprueba que la clave dada exista en el array. El primer parámetro es la clave a buscar y el 
 segundo el array. Devuelve true si la encuentra</t>
   </si>
@@ -537,6 +534,107 @@
 start_index.
 Parámetros -&gt; El primer índice del array retornado, el segundo es el numero de elementos que se quiere insertar y el terero el valor que se va usar para rellenarlo.
 En caso de que el primer índice del array retornado sea negativo, comenzará por el negativo y luego el resto comenzarán desde 0</t>
+  </si>
+  <si>
+    <t>range()</t>
+  </si>
+  <si>
+    <t>Crea un array que contiene un rango de elementos.
+El primer parámetro es el primer valor del rango y el segundo el último, es decir, cuando finaliza.
+Puede haber un tercer parámetro que sirve para incremento entre los elementos de la secuencia,
+debe de ser positivo y si no se especifica su valor predeterminado es 1.</t>
+  </si>
+  <si>
+    <t>// El parámetro step
+// array(0, 10, 20, 30, 40, 50, 60, 70, 80, 90, 100)
+foreach (range(0, 100, 10) as $número) {
+    echo $número;
+}
+// array('c', 'b', 'a');
+foreach (range('c', 'a') as $letra) {
+    echo $letra;
+}</t>
+  </si>
+  <si>
+    <t>array()</t>
+  </si>
+  <si>
+    <t>Crea un array.
+Sintaxis "índice =&gt; valores", separados por comas, define índice y valores. El índice puede ser de tipo cadena o numérico. Cuando se omite el índice, se genera un índice numérico automáticamente, empezando por 0. Si el índice es numérico, el siguiente índice generado será el número del índice mayor +1. Nótese que cuando se crean dos índices idénticos, el último sobrescribe el primero.
+Tener una coma al final de la última entrada definida en el array, aunque no es usual, sigue siendo sintaxis válida.</t>
+  </si>
+  <si>
+    <t>&lt;?php
+    $a = ['one' =&gt; 1, 'two' =&gt; 2, 'three' =&gt; 3, 'four' =&gt; 4];
+    print_r($a);
+?&gt;
+Array
+(
+    [one] =&gt; 1
+    [two] =&gt; 2
+    [three] =&gt; 3
+    [four] =&gt; 4
+)</t>
+  </si>
+  <si>
+    <t>array_key_exists()
+o
+key_exists()</t>
+  </si>
+  <si>
+    <t>Ordena un array por clave en orden inverso, manteniendo la correlación entre la clave y los datos.
+Muy útil para array asociativos.</t>
+  </si>
+  <si>
+    <t>krsort()</t>
+  </si>
+  <si>
+    <t>sort()</t>
+  </si>
+  <si>
+    <t>&lt;?php
+$frutas = array(
+    "Naranja1", "naranja2", "Naranja3", "naranja20"
+);
+sort($frutas, SORT_NATURAL | SORT_FLAG_CASE);
+foreach ($frutas as $clave =&gt; $valor) {
+    echo "frutas[" . $clave . "] = " . $valor . "\n";
+}
+?&gt;
+frutas[0] = Naranja1
+frutas[1] = naranja2
+frutas[2] = Naranja3
+frutas[3] = naranja20</t>
+  </si>
+  <si>
+    <t>Ordena un array, los elementos estarán ordenados de menor a mayor cuando la función haya 
+finalizado. Devuelve true en caso de éxito o false en caso de error.
+El primer parámetro es el array. El segundo puede ser usado para modificar el modo de ordenación
+SORT_REGULAR - compara elementos normalmente (no cambia los tipos)
+SORT_NUMERIC - compara elementos de forma numérica
+SORT_STRING - compara elementos como cadenas
+SORT_LOCALE_STRING - compara elementos como cadenas, basándose en la configuración regional en uso. Utiliza la configuración regional, la cual puede cambiarse usando setlocale().
+SORT_NATURAL - compara elementos como cadenas usando el "orden natural" de la misma forma que natsort().
+SORT_FLAG_CASE - se puede combinar (OR a nivel de bits) con SORT_STRING o SORT_NATURAL para ordenar cadenas de forma insensible a mayúsculas/minúsculas
+Esta funcion asigna nuevas claves a los elementos del array. Eliminará cualquier clave existente que haya sido asignada en vez de reordenar las claves</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If you want to sort alphabeticaly no matter it is upper or lower case:
+&lt;?php
+sort($names, SORT_STRING | SORT_FLAG_CASE);
+print_r($names);
+?&gt;
+Result is:
+Array
+(
+    [0] =&gt; Amin
+    [1] =&gt; amir
+    [2] =&gt; Armin
+    [3] =&gt; armita
+    [4] =&gt; sarah
+    [5] =&gt; Somayeh
+)
+</t>
   </si>
 </sst>
 </file>
@@ -715,7 +813,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -744,9 +842,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -797,6 +892,12 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1168,10 +1269,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE4C0BA5-67CA-4BF0-AF87-5886AC2AB380}">
-  <dimension ref="A1:C31"/>
+  <dimension ref="A1:D50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" topLeftCell="C26" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1179,13 +1280,14 @@
     <col min="1" max="1" width="21.77734375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="89.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="28.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20"/>
+      <c r="B1" s="19"/>
       <c r="C1" s="2" t="s">
         <v>3</v>
       </c>
@@ -1201,297 +1303,417 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B4" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C4" s="8" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="98.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="18" t="s">
+    <row r="5" spans="1:3" ht="98.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B5" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C5" s="8" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="135.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="18" t="s">
+    <row r="6" spans="1:3" ht="135.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B6" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C6" s="8" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="127.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="5" t="s">
+    <row r="7" spans="1:3" ht="127.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B7" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C7" s="8" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A7" s="5" t="s">
+    <row r="8" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A8" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B8" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C8" s="8" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="72" x14ac:dyDescent="0.3">
-      <c r="A8" s="18" t="s">
+    <row r="9" spans="1:3" ht="72" x14ac:dyDescent="0.3">
+      <c r="A9" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B9" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="31" t="s">
+        <v>103</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="144" x14ac:dyDescent="0.3">
+      <c r="A11" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="141.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="C12" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="C8" s="8" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="B9" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="144" x14ac:dyDescent="0.3">
-      <c r="A10" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="B10" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="141.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="B11" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="15" t="s">
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="B12" s="16"/>
-      <c r="C12" s="17"/>
-    </row>
-    <row r="13" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A13" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="B13" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>45</v>
-      </c>
+      <c r="B13" s="15"/>
+      <c r="C13" s="16"/>
     </row>
     <row r="14" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A15" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="B14" s="13" t="s">
+      <c r="B15" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="C15" s="8" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="230.4" x14ac:dyDescent="0.3">
-      <c r="A15" s="5" t="s">
+    <row r="16" spans="1:3" ht="230.4" x14ac:dyDescent="0.3">
+      <c r="A16" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B16" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="B15" s="13" t="s">
+      <c r="C16" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="C15" s="8" t="s">
+    </row>
+    <row r="17" spans="1:4" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A17" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="B17" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="C17" s="8"/>
+    </row>
+    <row r="18" spans="1:4" ht="201.6" x14ac:dyDescent="0.3">
+      <c r="A18" s="17" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A16" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="B16" s="13" t="s">
+      <c r="B18" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="216" x14ac:dyDescent="0.3">
+      <c r="A19" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="B19" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="201.6" x14ac:dyDescent="0.3">
+      <c r="A20" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B20" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="216" x14ac:dyDescent="0.3">
+      <c r="A21" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B21" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="187.2" x14ac:dyDescent="0.3">
+      <c r="A22" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B22" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A23" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="B23" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="244.8" x14ac:dyDescent="0.3">
+      <c r="A24" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="B24" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B25" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="C25" s="28" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A26" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B26" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="C26" s="29"/>
+    </row>
+    <row r="27" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A27" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="B27" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="C27" s="29"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="B28" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="C28" s="29"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B29" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="C29" s="30"/>
+    </row>
+    <row r="30" spans="1:4" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="A30" s="17" t="s">
         <v>97</v>
       </c>
-      <c r="C16" s="8"/>
-    </row>
-    <row r="17" spans="1:3" ht="201.6" x14ac:dyDescent="0.3">
-      <c r="A17" s="18" t="s">
-        <v>64</v>
-      </c>
-      <c r="B17" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="216" x14ac:dyDescent="0.3">
-      <c r="A18" s="18" t="s">
-        <v>73</v>
-      </c>
-      <c r="B18" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="201.6" x14ac:dyDescent="0.3">
-      <c r="A19" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="B19" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="216" x14ac:dyDescent="0.3">
-      <c r="A20" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="B20" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="187.2" x14ac:dyDescent="0.3">
-      <c r="A21" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="B21" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="C21" s="8" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A22" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="B22" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="244.8" x14ac:dyDescent="0.3">
-      <c r="A23" s="18" t="s">
-        <v>79</v>
-      </c>
-      <c r="B23" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="C23" s="8" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="B24" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="C24" s="29" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A25" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="B25" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="C25" s="30"/>
-    </row>
-    <row r="26" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A26" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="B26" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="C26" s="30"/>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="B27" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="C27" s="30"/>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="B28" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="C28" s="31"/>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" s="5"/>
-      <c r="B29" s="13"/>
-      <c r="C29" s="8"/>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30" s="14"/>
-      <c r="B30" s="14"/>
-      <c r="C30" s="14"/>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31" s="14"/>
-      <c r="B31" s="14"/>
-      <c r="C31" s="14"/>
+      <c r="B30" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="302.39999999999998" x14ac:dyDescent="0.3">
+      <c r="A31" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="B31" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="D31" s="32" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A32" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="B32" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="C32" s="8"/>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" s="5"/>
+      <c r="B33" s="13"/>
+      <c r="C33" s="8"/>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" s="5"/>
+      <c r="B34" s="13"/>
+      <c r="C34" s="8"/>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" s="5"/>
+      <c r="B35" s="13"/>
+      <c r="C35" s="8"/>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" s="5"/>
+      <c r="B36" s="13"/>
+      <c r="C36" s="8"/>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" s="5"/>
+      <c r="B37" s="13"/>
+      <c r="C37" s="8"/>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" s="5"/>
+      <c r="B38" s="13"/>
+      <c r="C38" s="8"/>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" s="5"/>
+      <c r="B39" s="13"/>
+      <c r="C39" s="8"/>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" s="5"/>
+      <c r="B40" s="13"/>
+      <c r="C40" s="8"/>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" s="5"/>
+      <c r="B41" s="13"/>
+      <c r="C41" s="8"/>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42" s="5"/>
+      <c r="B42" s="13"/>
+      <c r="C42" s="8"/>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43" s="5"/>
+      <c r="B43" s="13"/>
+      <c r="C43" s="8"/>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44" s="5"/>
+      <c r="B44" s="13"/>
+      <c r="C44" s="8"/>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45" s="5"/>
+      <c r="B45" s="13"/>
+      <c r="C45" s="8"/>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A46" s="5"/>
+      <c r="B46" s="13"/>
+      <c r="C46" s="8"/>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A47" s="5"/>
+      <c r="B47" s="13"/>
+      <c r="C47" s="8"/>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A48" s="5"/>
+      <c r="B48" s="13"/>
+      <c r="C48" s="8"/>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49" s="5"/>
+      <c r="B49" s="13"/>
+      <c r="C49" s="8"/>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50" s="5"/>
+      <c r="B50" s="13"/>
+      <c r="C50" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C24:C28"/>
+    <mergeCell ref="C25:C29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -1513,47 +1735,47 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21"/>
+      <c r="B1" s="20"/>
       <c r="C1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="21" t="s">
         <v>17</v>
       </c>
       <c r="B2" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="24" t="s">
+      <c r="C2" s="23" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="159.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="23"/>
+      <c r="A3" s="22"/>
       <c r="B3" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="25"/>
+      <c r="C3" s="24"/>
     </row>
     <row r="4" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="23" t="s">
+      <c r="A4" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="27" t="s">
+      <c r="B4" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="24" t="s">
+      <c r="C4" s="23" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="26"/>
-      <c r="B5" s="28"/>
-      <c r="C5" s="25"/>
+      <c r="A5" s="25"/>
+      <c r="B5" s="27"/>
+      <c r="C5" s="24"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C11" s="11"/>
@@ -1600,10 +1822,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21"/>
+      <c r="B1" s="20"/>
       <c r="C1" s="2" t="s">
         <v>3</v>
       </c>
@@ -1631,20 +1853,20 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="23" t="s">
+      <c r="A4" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="27" t="s">
+      <c r="B4" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="24" t="s">
+      <c r="C4" s="23" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="26"/>
-      <c r="B5" s="28"/>
-      <c r="C5" s="25"/>
+      <c r="A5" s="25"/>
+      <c r="B5" s="27"/>
+      <c r="C5" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -1672,10 +1894,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21"/>
+      <c r="B1" s="20"/>
       <c r="C1" s="2" t="s">
         <v>3</v>
       </c>
@@ -1723,10 +1945,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21"/>
+      <c r="B1" s="20"/>
       <c r="C1" s="2" t="s">
         <v>3</v>
       </c>

--- a/Archivos/Funciones.xlsx
+++ b/Archivos/Funciones.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\DES\Archivos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67CF6295-AABF-48D8-9E4C-383B828D0B69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D652EC5-8865-4EB7-8966-AD18D3A1401A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2652" yWindow="2652" windowWidth="11424" windowHeight="8964" xr2:uid="{8315492C-99B7-4496-8BBA-6A10F97535C8}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="134">
   <si>
     <t>FUNCIONES</t>
   </si>
@@ -212,9 +212,6 @@
     <t>count_chars()</t>
   </si>
   <si>
-    <t>count()</t>
-  </si>
-  <si>
     <t>Elimina valores duplicados de un array y devuelve el array sin valores duplicados</t>
   </si>
   <si>
@@ -463,9 +460,6 @@
     <t>reset()</t>
   </si>
   <si>
-    <t>current()</t>
-  </si>
-  <si>
     <t>next()</t>
   </si>
   <si>
@@ -582,8 +576,7 @@
 key_exists()</t>
   </si>
   <si>
-    <t>Ordena un array por clave en orden inverso, manteniendo la correlación entre la clave y los datos.
-Muy útil para array asociativos.</t>
+    <t>ksort()</t>
   </si>
   <si>
     <t>krsort()</t>
@@ -636,12 +629,206 @@
 )
 </t>
   </si>
+  <si>
+    <t>asort()</t>
+  </si>
+  <si>
+    <t>Ordena un array y mantiene la asociación de índices.
+Se emplea mucho para los arrays asociativos en los que el orden es importante.
+Primer parámetro array, segundo un sort_flags (puedes ponerlo o no) para cambiar la forma de ordenar.
+Devuelve true o false.</t>
+  </si>
+  <si>
+    <t>arsort()</t>
+  </si>
+  <si>
+    <t>Lo mismo que asort() pero en orden inverso. Tmb puede tener 2 parametros</t>
+  </si>
+  <si>
+    <t>Ordena un array por clave en orden inverso, manteniendo la correlación entre la clave y los datos.
+Muy útil para array asociativos. Tambien puede tener 2 parámetros (ver sort() para el segundo)</t>
+  </si>
+  <si>
+    <t>&lt;?php
+$fruits = array("d"=&gt;"lemon", "a"=&gt;"orange", "b"=&gt;"banana", "c"=&gt;"apple");
+krsort($fruits);
+foreach ($fruits as $key =&gt; $val) {
+    echo "$key = $val\n";
+}
+?&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;?php
+$fruits = array("d" =&gt; "lemon", "a" =&gt; "orange", "b" =&gt; "banana", "c" =&gt; "apple");
+asort($fruits);
+foreach ($fruits as $key =&gt; $val) {
+    echo "$key = $val\n";
+}
+?&gt;
+c = apple
+b = banana
+d = lemon
+a = orange
+Las frutas han sido ordenadas
+alfabeticamente y se han mantenido el índice asociado a cada elemento
+</t>
+  </si>
+  <si>
+    <t>&lt;?php
+$fruits = array("d" =&gt; "lemon", "a" =&gt; "orange", "b" =&gt; "banana", "c" =&gt; "apple");
+arsort($fruits);
+foreach ($fruits as $key =&gt; $val) {
+    echo "$key = $val\n";
+}
+?&gt;
+a=orange
+d=lemon
+b = banana
+c = apple</t>
+  </si>
+  <si>
+    <t>Lo mismo que krsort() pero en orden. Tmb puede tener 2 parametros</t>
+  </si>
+  <si>
+    <t>&lt;?php
+$fruits = array("d"=&gt;"lemon", "a"=&gt;"orange", "b"=&gt;"banana", "c"=&gt;"apple");
+ksort($fruits);
+foreach ($fruits as $key =&gt; $val) {
+    echo "$key = $val\n";
+}
+?&gt;
+a = orange
+b = banana
+c = apple
+d = lemon</t>
+  </si>
+  <si>
+    <t>current()
+o
+pos() (alias)</t>
+  </si>
+  <si>
+    <t>rsort()</t>
+  </si>
+  <si>
+    <t>Ordena un array en orden inverso (lo mismo que sort() pero al contrario)</t>
+  </si>
+  <si>
+    <t>count()
+o
+sizeof() (alias)</t>
+  </si>
+  <si>
+    <t>key()</t>
+  </si>
+  <si>
+    <t>Devuelve el elemento índice de la posición actual del array.
+Recibe como primer parámetro un array.
+No desplaza el puntero interno del array</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;?php
+$array = array(
+    'fruta1' =&gt; 'manzana',
+    'fruta2' =&gt; 'naranja',
+    'fruta3' =&gt; 'uva',
+    'fruta4' =&gt; 'manzana',
+    'fruta5' =&gt; 'manzana');
+// Este ciclo muestra todas las claves del array asociativo
+// donde el valor equivale a "manzana"
+while ($nombre_fruta = current($array)) {
+    if ($nombre_fruta == 'manzana') {
+        echo key($array).'&lt;br /&gt;';
+    }
+    next($array);
+}
+?&gt;
+fruta1&lt;br /&gt;
+fruta4&lt;br /&gt;
+fruta5&lt;br /&gt;
+</t>
+  </si>
+  <si>
+    <t>natcasesort()</t>
+  </si>
+  <si>
+    <t>Ordena un array usando un algoritmo de orden natural insensible a mayúsculas-minúsculas
+Ordena las cadenas alfanuméricas en la manera en que lo haría un humano mientras mantiene
+las asociaciones de clave/valor. Es descrito como "ordenación natural". Recibe un solo parámetro, el array. Devuelve true o false.,</t>
+  </si>
+  <si>
+    <t>&lt;?php
+$array2 = array('IMG0.png', 'img12.png', 'img10.png', 'img2.png', 'img1.png', 'IMG3.png');
+natcasesort($array2);
+echo "\nOrdenación de orden natural (insensible a maý-mín)\n";
+print_r($array2);
+Ordenación de orden natural (insensible a maý-mín)
+Array
+(
+    [0] =&gt; IMG0.png
+    [4] =&gt; img1.png
+    [3] =&gt; img2.png
+    [5] =&gt; IMG3.png
+    [2] =&gt; img10.png
+    [1] =&gt; img12.png
+)
+?&gt;</t>
+  </si>
+  <si>
+    <t>natsort()</t>
+  </si>
+  <si>
+    <t>Ordena un array usando un algoritmo de orden natural sensible  a mayúsculas-minúsculas
+Ordena las cadenas alfanuméricas en la manera en que lo haría un humano mientras mantiene
+las asociaciones de clave/valor. Es descrito como "ordenación natural". Recibe un solo parámetro,
+el array. Devuelve true o false.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;?php
+$array1 = $array2 = array("img12.png", "img10.png", "img2.png", "img1.png");
+asort($array1);
+echo "Ordenación estándar\n";
+print_r($array1);
+natsort($array2);
+echo "\nOrdenación de orden natural\n";
+print_r($array2);
+?&gt;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Ordenación estándar
+Array
+(
+    [3] =&gt; img1.png
+    [1] =&gt; img10.png
+    [0] =&gt; img12.png
+    [2] =&gt; img2.png
+)
+Ordenación de orden natural
+Array
+(
+    [3] =&gt; img1.png
+    [2] =&gt; img2.png
+    [1] =&gt; img10.png
+    [0] =&gt; img12.png
+)
+</t>
+  </si>
+  <si>
+    <t>array_walk()</t>
+  </si>
+  <si>
+    <t>Aplica la función definada por el usuario a cada elemento del array dado por array.
+No le afecta el puntero interno de array, porque lo recorre por completo.
+Tiene como primer parámetro el array y luego otros dos (VER DOCUMENTACIÓN PORQUE NO ENTIENDO)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -677,8 +864,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="4"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -706,6 +900,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -813,7 +1013,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -898,6 +1098,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1269,10 +1478,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE4C0BA5-67CA-4BF0-AF87-5886AC2AB380}">
-  <dimension ref="A1:D50"/>
+  <dimension ref="A1:D54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C26" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView tabSelected="1" topLeftCell="A39" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1305,13 +1514,13 @@
     </row>
     <row r="3" spans="1:3" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="C3" s="8" t="s">
         <v>100</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="409.6" x14ac:dyDescent="0.3">
@@ -1352,228 +1561,230 @@
         <v>36</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="124.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>37</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C8" s="8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="374.4" x14ac:dyDescent="0.3">
+      <c r="A9" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="72" x14ac:dyDescent="0.3">
+      <c r="A10" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="31" t="s">
+        <v>101</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="144" x14ac:dyDescent="0.3">
+      <c r="A12" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="141.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="B14" s="15"/>
+      <c r="C14" s="16"/>
+    </row>
+    <row r="15" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A15" s="33" t="s">
+        <v>121</v>
+      </c>
+      <c r="B15" s="13" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" ht="72" x14ac:dyDescent="0.3">
-      <c r="A9" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="B9" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="31" t="s">
-        <v>103</v>
-      </c>
-      <c r="B10" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="144" x14ac:dyDescent="0.3">
-      <c r="A11" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="B11" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="141.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="B12" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="C12" s="8" t="s">
+      <c r="C15" s="8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A16" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="230.4" x14ac:dyDescent="0.3">
+      <c r="A17" s="5" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="B13" s="15"/>
-      <c r="C13" s="16"/>
-    </row>
-    <row r="14" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A14" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="B14" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A15" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="B15" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="230.4" x14ac:dyDescent="0.3">
-      <c r="A16" s="5" t="s">
+      <c r="B17" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="B16" s="13" t="s">
+      <c r="C17" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="C16" s="8" t="s">
+    </row>
+    <row r="18" spans="1:4" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A18" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="B18" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="C18" s="8"/>
+    </row>
+    <row r="19" spans="1:4" ht="201.6" x14ac:dyDescent="0.3">
+      <c r="A19" s="17" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A17" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="B17" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="C17" s="8"/>
-    </row>
-    <row r="18" spans="1:4" ht="201.6" x14ac:dyDescent="0.3">
-      <c r="A18" s="17" t="s">
+      <c r="B19" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="B18" s="13" t="s">
+      <c r="C19" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="C18" s="8" t="s">
+    </row>
+    <row r="20" spans="1:4" ht="216" x14ac:dyDescent="0.3">
+      <c r="A20" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="B20" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="201.6" x14ac:dyDescent="0.3">
+      <c r="A21" s="5" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" ht="216" x14ac:dyDescent="0.3">
-      <c r="A19" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="B19" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="C19" s="8" t="s">
+      <c r="B21" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="216" x14ac:dyDescent="0.3">
+      <c r="A22" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B22" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="187.2" x14ac:dyDescent="0.3">
+      <c r="A23" s="5" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" ht="201.6" x14ac:dyDescent="0.3">
-      <c r="A20" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="B20" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="216" x14ac:dyDescent="0.3">
-      <c r="A21" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="B21" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="C21" s="8" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="187.2" x14ac:dyDescent="0.3">
-      <c r="A22" s="5" t="s">
+      <c r="B23" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="B22" s="13" t="s">
+      <c r="C23" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="C22" s="8" t="s">
+    </row>
+    <row r="24" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A24" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="B24" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="244.8" x14ac:dyDescent="0.3">
+      <c r="A25" s="17" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A23" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="B23" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="C23" s="8" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="244.8" x14ac:dyDescent="0.3">
-      <c r="A24" s="17" t="s">
+      <c r="B25" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="B24" s="13" t="s">
+      <c r="C25" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="C24" s="8" t="s">
+    </row>
+    <row r="26" spans="1:4" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="5" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="5" t="s">
+      <c r="B26" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="C26" s="28" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A27" s="33" t="s">
+        <v>118</v>
+      </c>
+      <c r="B27" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="C27" s="29"/>
+    </row>
+    <row r="28" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A28" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="B25" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="C25" s="28" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A26" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="B26" s="13" t="s">
+      <c r="B28" s="13" t="s">
         <v>86</v>
-      </c>
-      <c r="C26" s="29"/>
-    </row>
-    <row r="27" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A27" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="B27" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="C27" s="29"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="B28" s="13" t="s">
-        <v>90</v>
       </c>
       <c r="C28" s="29"/>
     </row>
@@ -1582,120 +1793,170 @@
         <v>87</v>
       </c>
       <c r="B29" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="C29" s="30"/>
-    </row>
-    <row r="30" spans="1:4" ht="172.8" x14ac:dyDescent="0.3">
-      <c r="A30" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="C29" s="29"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="B30" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="C30" s="30"/>
+    </row>
+    <row r="31" spans="1:4" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="A31" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="B31" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="C31" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="B30" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="C30" s="8" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="302.39999999999998" x14ac:dyDescent="0.3">
-      <c r="A31" s="5" t="s">
+    </row>
+    <row r="32" spans="1:4" ht="302.39999999999998" x14ac:dyDescent="0.3">
+      <c r="A32" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="B32" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="B31" s="13" t="s">
+      <c r="C32" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="D32" s="32" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="B33" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="C33" s="8"/>
+      <c r="D33" s="32"/>
+    </row>
+    <row r="34" spans="1:4" ht="302.39999999999998" x14ac:dyDescent="0.3">
+      <c r="A34" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="C31" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="D31" s="32" t="s">
+      <c r="B34" s="13" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A32" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="B32" s="13" t="s">
-        <v>104</v>
-      </c>
-      <c r="C32" s="8"/>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33" s="5"/>
-      <c r="B33" s="13"/>
-      <c r="C33" s="8"/>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34" s="5"/>
-      <c r="B34" s="13"/>
-      <c r="C34" s="8"/>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A35" s="5"/>
-      <c r="B35" s="13"/>
-      <c r="C35" s="8"/>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A36" s="5"/>
-      <c r="B36" s="13"/>
-      <c r="C36" s="8"/>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37" s="5"/>
-      <c r="B37" s="13"/>
-      <c r="C37" s="8"/>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A38" s="5"/>
-      <c r="B38" s="13"/>
-      <c r="C38" s="8"/>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A39" s="5"/>
-      <c r="B39" s="13"/>
-      <c r="C39" s="8"/>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A40" s="5"/>
-      <c r="B40" s="13"/>
-      <c r="C40" s="8"/>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C34" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="D34" s="32"/>
+    </row>
+    <row r="35" spans="1:4" ht="246" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="B35" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="D35" s="32"/>
+    </row>
+    <row r="36" spans="1:4" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A36" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="B36" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="201.6" x14ac:dyDescent="0.3">
+      <c r="A37" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="B37" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="360" x14ac:dyDescent="0.3">
+      <c r="A38" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="B38" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="273.60000000000002" x14ac:dyDescent="0.3">
+      <c r="A39" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="B39" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="D39" s="32" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A40" s="34" t="s">
+        <v>132</v>
+      </c>
+      <c r="B40" s="35" t="s">
+        <v>133</v>
+      </c>
+      <c r="C40" s="35"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="5"/>
       <c r="B41" s="13"/>
       <c r="C41" s="8"/>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="5"/>
       <c r="B42" s="13"/>
       <c r="C42" s="8"/>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="5"/>
       <c r="B43" s="13"/>
       <c r="C43" s="8"/>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" s="5"/>
       <c r="B44" s="13"/>
       <c r="C44" s="8"/>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" s="5"/>
       <c r="B45" s="13"/>
       <c r="C45" s="8"/>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="5"/>
       <c r="B46" s="13"/>
       <c r="C46" s="8"/>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" s="5"/>
       <c r="B47" s="13"/>
       <c r="C47" s="8"/>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" s="5"/>
       <c r="B48" s="13"/>
       <c r="C48" s="8"/>
@@ -1710,10 +1971,30 @@
       <c r="B50" s="13"/>
       <c r="C50" s="8"/>
     </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A51" s="5"/>
+      <c r="B51" s="13"/>
+      <c r="C51" s="8"/>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A52" s="5"/>
+      <c r="B52" s="13"/>
+      <c r="C52" s="8"/>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A53" s="5"/>
+      <c r="B53" s="13"/>
+      <c r="C53" s="8"/>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A54" s="5"/>
+      <c r="B54" s="13"/>
+      <c r="C54" s="8"/>
+    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C25:C29"/>
+    <mergeCell ref="C26:C30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>

--- a/Archivos/Funciones.xlsx
+++ b/Archivos/Funciones.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\DES\Archivos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D652EC5-8865-4EB7-8966-AD18D3A1401A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B0ED67A-FF30-4623-9C7B-307DABE10B1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2652" yWindow="2652" windowWidth="11424" windowHeight="8964" xr2:uid="{8315492C-99B7-4496-8BBA-6A10F97535C8}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="152">
   <si>
     <t>FUNCIONES</t>
   </si>
@@ -822,6 +822,160 @@
     <t>Aplica la función definada por el usuario a cada elemento del array dado por array.
 No le afecta el puntero interno de array, porque lo recorre por completo.
 Tiene como primer parámetro el array y luego otros dos (VER DOCUMENTACIÓN PORQUE NO ENTIENDO)</t>
+  </si>
+  <si>
+    <t>array_splice()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Elimina los elementos designados por offset y length del array input, y los reemplaza con los 
+elementos del array replacement, si se proporcionan.
+Observe que las claves numéricas de input no se preservan.
+Parámetros:
+1. Array.    
+2. Índice de la porción limitada     (offset)
+3. La longitud, si se omite pues se elimina todo desde offset hasta el final del array. Si se especifica y es positivo, se eliminarán tantos elementos como indique la longitud. Si se especifica y es negativo, el final de la porción eliminada será de tantos elementos como indique la longitud desde el final del array.
+4. Si se especifica con lo que se quiere cambiar, pues los elementos serán reemplazados con los elementos de este array. Si offset y length no eliminan nah (porque han puesto, x ejemplo, longitud 0)
+Se insertarán los lementos del array replacement en el lugar especificado por el offset. </t>
+  </si>
+  <si>
+    <t>&lt;?php
+$entrada = array("rojo", "verde", "azul", "amarillo");
+array_splice($entrada, 2);
+// $entrada ahora es array("rojo", "verde")
+$entrada = array("rojo", "verde", "azul", "amarillo");
+array_splice($entrada, 1, -1);
+// $entrada ahora es array("rojo", "amarillo")
+$entrada = array("rojo", "verde", "azul", "amarillo");
+array_splice($entrada, 1, count($entrada), "naranja");
+// $entrada ahora es array("rojo", "naranja")
+$entrada = array("rojo", "verde", "azul", "amarillo");
+array_splice($entrada, -1, 1, array("negro", "granate"));
+// $entrada ahora es array("rojo", "verde",
+//          "azul", "negro", "granate")
+$entrada = array("rojo", "verde", "azul", "amarillo");
+array_splice($entrada, 3, 0, "púpura");
+// $entrada ahora es array("rojo", "verde",
+//          "azul", "púpura", "amarillo");
+?&gt;</t>
+  </si>
+  <si>
+    <t>array_slice()</t>
+  </si>
+  <si>
+    <t>array_merge()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;?php
+$array1    = array("color" =&gt; "red", 2, 4);
+$array2    = array("a", "b", "color" =&gt; "green", "shape" =&gt; "trapezoid", 4);
+$resultado = array_merge($array1, $array2);
+print_r($resultado);
+?&gt;
+Array
+(
+    [color] =&gt; green
+    [0] =&gt; 2
+    [1] =&gt; 4
+    [2] =&gt; a
+    [3] =&gt; b
+    [shape] =&gt; trapezoid
+    [4] =&gt; 4
+)
+</t>
+  </si>
+  <si>
+    <t>Combina dos o más arrays. Combina los elementos de uno o más arrays juntándolos de modo
+que los valores de uno se anexan al final del anterior. Devuelve el array resultante.
+Si los arrays de entrada tienen las mismas claves de tipo string, la última sobrescribe la anterior. Sin embargo, en claves numéricas, el último es añadido al final. Los valores del array de entrada con claves numéricas serán renumeradas con claves incrementales en el array resultante, comenzando desde cero.
+El primero es el array inicial a combinar y se pueden meter varios arrays como argumentos para
+ combinarlos.
+In some situations, the union operator ( + ) might be more useful to you than array_merge.  The array_merge function does not preserve numeric key values.  If you need to preserve the numeric keys, then using + will do that.
+$array3 = $array1 + $array2;</t>
+  </si>
+  <si>
+    <t>Devuelve la secuencia de elementos del array tal y como se especifica en los parámetros offset y
+length.
+Parametros-&gt; array, índice, longitud y false/true (opcional para mantener los índices numéricos de 
+los valores)</t>
+  </si>
+  <si>
+    <t>&lt;?php
+$entrada = array("a", "b", "c", "d", "e");
+$salida = array_slice($entrada, 2);      // devuelve "c", "d", y "e"
+$salida = array_slice($entrada, -2, 1);  // devuelve "d"
+$salida = array_slice($entrada, 0, 3);   // devuelve "a", "b", y "c"</t>
+  </si>
+  <si>
+    <t>array_replace</t>
+  </si>
+  <si>
+    <t>Reemplaza los elementos del array original con elementos de array adicionales.
+Reemplaza los valores del array1 con valores que tienen las mismas claves en cada uno de los siguientes arrays.  Si la clave del primer array existe en el segundo array, se reemplaza el valor del
+primero por el del segundo. Si la clave existe en el segundo pero no en el primero, se crea en el
+primero. Si solo está en el primero, se deja tal cual. Si se proporciona más de un array para el 
+reemplazo se va por orden.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;?php
+$base = array("naranja", "plátano", "manzana", "frambuesa");
+$reemplazos = array(0 =&gt; "piña", 4 =&gt; "cereza");
+$reemplazos2 = array(0 =&gt; "uva");
+$cesta = array_replace($base, $reemplazos, $reemplazos2);
+print_r($cesta);
+?&gt;
+Array
+(
+    [0] =&gt; uva
+    [1] =&gt; plátano
+    [2] =&gt; manzana
+    [3] =&gt; frambuesa
+    [4] =&gt; cereza
+)
+</t>
+  </si>
+  <si>
+    <t>array_product()</t>
+  </si>
+  <si>
+    <t>Calcula el productro de los valores de un array. Devuelve un número. Recibe como argumento
+un array.</t>
+  </si>
+  <si>
+    <t>&lt;?php
+$a = array(2, 4, 6, 8);
+echo "producto(a) = " . array_product($a) . "\n";
+echo "producto(array()) = " . array_product(array()) . "\n";
+?&gt;
+producto(a) = 384
+producto(array()) = 1</t>
+  </si>
+  <si>
+    <t>array_multisort()</t>
+  </si>
+  <si>
+    <t>Ordena varios arrays, o arrays multidimensionales.
+Las claves asociativas (string) se mantendrán, aunque las claves numéricas serán reindexadas.</t>
+  </si>
+  <si>
+    <t>&lt;?php
+$array1 = array(10, 100, 100, 0);
+$array2 = array(1, 3, 2, 4);
+array_multisort($array1, $array2);
+var_dump($array1);
+var_dump($array2);
+?&gt;
+array(4) {
+  [0]=&gt; int(0)
+  [1]=&gt; int(10)
+  [2]=&gt; int(100)
+  [3]=&gt; int(100)
+}
+array(4) {
+  [0]=&gt; int(4)
+  [1]=&gt; int(1)
+  [2]=&gt; int(2)
+  [3]=&gt; int(3)
+}</t>
   </si>
 </sst>
 </file>
@@ -1013,7 +1167,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -1054,12 +1208,36 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1084,29 +1262,11 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1478,10 +1638,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE4C0BA5-67CA-4BF0-AF87-5886AC2AB380}">
-  <dimension ref="A1:D54"/>
+  <dimension ref="A1:D56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+    <sheetView tabSelected="1" topLeftCell="A45" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B42" sqref="B42:B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1493,10 +1653,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19"/>
+      <c r="B1" s="24"/>
       <c r="C1" s="2" t="s">
         <v>3</v>
       </c>
@@ -1601,7 +1761,7 @@
       </c>
     </row>
     <row r="11" spans="1:3" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A11" s="31" t="s">
+      <c r="A11" s="18" t="s">
         <v>101</v>
       </c>
       <c r="B11" s="13" t="s">
@@ -1641,7 +1801,7 @@
       <c r="C14" s="16"/>
     </row>
     <row r="15" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A15" s="33" t="s">
+      <c r="A15" s="20" t="s">
         <v>121</v>
       </c>
       <c r="B15" s="13" t="s">
@@ -1766,18 +1926,18 @@
       <c r="B26" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="C26" s="28" t="s">
+      <c r="C26" s="25" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A27" s="33" t="s">
+      <c r="A27" s="20" t="s">
         <v>118</v>
       </c>
       <c r="B27" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="C27" s="29"/>
+      <c r="C27" s="26"/>
     </row>
     <row r="28" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A28" s="5" t="s">
@@ -1786,7 +1946,7 @@
       <c r="B28" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="C28" s="29"/>
+      <c r="C28" s="26"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="5" t="s">
@@ -1795,7 +1955,7 @@
       <c r="B29" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="C29" s="29"/>
+      <c r="C29" s="26"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="5" t="s">
@@ -1804,7 +1964,7 @@
       <c r="B30" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="C30" s="30"/>
+      <c r="C30" s="27"/>
     </row>
     <row r="31" spans="1:4" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A31" s="17" t="s">
@@ -1827,7 +1987,7 @@
       <c r="C32" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="D32" s="32" t="s">
+      <c r="D32" s="19" t="s">
         <v>107</v>
       </c>
     </row>
@@ -1839,7 +1999,7 @@
         <v>120</v>
       </c>
       <c r="C33" s="8"/>
-      <c r="D33" s="32"/>
+      <c r="D33" s="19"/>
     </row>
     <row r="34" spans="1:4" ht="302.39999999999998" x14ac:dyDescent="0.3">
       <c r="A34" s="5" t="s">
@@ -1851,7 +2011,7 @@
       <c r="C34" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="D34" s="32"/>
+      <c r="D34" s="19"/>
     </row>
     <row r="35" spans="1:4" ht="246" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="5" t="s">
@@ -1863,7 +2023,7 @@
       <c r="C35" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="D35" s="32"/>
+      <c r="D35" s="19"/>
     </row>
     <row r="36" spans="1:4" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A36" s="5" t="s">
@@ -1887,7 +2047,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="360" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" ht="345.6" x14ac:dyDescent="0.3">
       <c r="A38" s="5" t="s">
         <v>125</v>
       </c>
@@ -1908,53 +2068,90 @@
       <c r="C39" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="D39" s="32" t="s">
+      <c r="D39" s="19" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A40" s="34" t="s">
+    <row r="40" spans="1:4" ht="331.2" x14ac:dyDescent="0.3">
+      <c r="A40" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="B40" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="C40" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="D40" s="19"/>
+    </row>
+    <row r="41" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A41" s="21" t="s">
         <v>132</v>
       </c>
-      <c r="B40" s="35" t="s">
+      <c r="B41" s="22" t="s">
         <v>133</v>
       </c>
-      <c r="C40" s="35"/>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A41" s="5"/>
-      <c r="B41" s="13"/>
-      <c r="C41" s="8"/>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A42" s="5"/>
-      <c r="B42" s="13"/>
-      <c r="C42" s="8"/>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A43" s="5"/>
-      <c r="B43" s="13"/>
-      <c r="C43" s="8"/>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A44" s="5"/>
-      <c r="B44" s="13"/>
-      <c r="C44" s="8"/>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A45" s="5"/>
-      <c r="B45" s="13"/>
-      <c r="C45" s="8"/>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A46" s="5"/>
-      <c r="B46" s="13"/>
-      <c r="C46" s="8"/>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A47" s="5"/>
-      <c r="B47" s="13"/>
-      <c r="C47" s="8"/>
+      <c r="C41" s="22"/>
+    </row>
+    <row r="42" spans="1:4" ht="259.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="36" t="s">
+        <v>134</v>
+      </c>
+      <c r="B42" s="25" t="s">
+        <v>135</v>
+      </c>
+      <c r="C42" s="31" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="303" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="37"/>
+      <c r="B43" s="27"/>
+      <c r="C43" s="32"/>
+    </row>
+    <row r="44" spans="1:4" ht="144" x14ac:dyDescent="0.3">
+      <c r="A44" s="17" t="s">
+        <v>137</v>
+      </c>
+      <c r="B44" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="C44" s="8" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="345.6" x14ac:dyDescent="0.3">
+      <c r="A45" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="B45" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="C45" s="8" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="316.8" x14ac:dyDescent="0.3">
+      <c r="A46" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="B46" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="C46" s="8" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="A47" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="B47" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="C47" s="8" t="s">
+        <v>148</v>
+      </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" s="5"/>
@@ -1991,10 +2188,23 @@
       <c r="B54" s="13"/>
       <c r="C54" s="8"/>
     </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A55" s="5"/>
+      <c r="B55" s="13"/>
+      <c r="C55" s="8"/>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A56" s="5"/>
+      <c r="B56" s="13"/>
+      <c r="C56" s="8"/>
+    </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="5">
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C26:C30"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="C42:C43"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -2016,47 +2226,47 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20"/>
+      <c r="B1" s="28"/>
       <c r="C1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="29" t="s">
         <v>17</v>
       </c>
       <c r="B2" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="23" t="s">
+      <c r="C2" s="31" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="159.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="22"/>
+      <c r="A3" s="30"/>
       <c r="B3" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="24"/>
+      <c r="C3" s="32"/>
     </row>
     <row r="4" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="26" t="s">
+      <c r="B4" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="23" t="s">
+      <c r="C4" s="31" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="25"/>
-      <c r="B5" s="27"/>
-      <c r="C5" s="24"/>
+      <c r="A5" s="33"/>
+      <c r="B5" s="35"/>
+      <c r="C5" s="32"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C11" s="11"/>
@@ -2103,10 +2313,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20"/>
+      <c r="B1" s="28"/>
       <c r="C1" s="2" t="s">
         <v>3</v>
       </c>
@@ -2134,20 +2344,20 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="26" t="s">
+      <c r="B4" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="23" t="s">
+      <c r="C4" s="31" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="25"/>
-      <c r="B5" s="27"/>
-      <c r="C5" s="24"/>
+      <c r="A5" s="33"/>
+      <c r="B5" s="35"/>
+      <c r="C5" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -2175,10 +2385,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20"/>
+      <c r="B1" s="28"/>
       <c r="C1" s="2" t="s">
         <v>3</v>
       </c>
@@ -2226,10 +2436,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20"/>
+      <c r="B1" s="28"/>
       <c r="C1" s="2" t="s">
         <v>3</v>
       </c>

--- a/Archivos/Funciones.xlsx
+++ b/Archivos/Funciones.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\DES\Archivos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B0ED67A-FF30-4623-9C7B-307DABE10B1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D46ECEA-C32A-49B0-BA49-A4771157C93B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2652" yWindow="2652" windowWidth="11424" windowHeight="8964" xr2:uid="{8315492C-99B7-4496-8BBA-6A10F97535C8}"/>
+    <workbookView xWindow="2652" yWindow="2652" windowWidth="11424" windowHeight="8964" activeTab="1" xr2:uid="{8315492C-99B7-4496-8BBA-6A10F97535C8}"/>
   </bookViews>
   <sheets>
     <sheet name="Arrays" sheetId="1" r:id="rId1"/>
-    <sheet name="DATE" sheetId="5" r:id="rId2"/>
-    <sheet name="Strs" sheetId="6" r:id="rId3"/>
+    <sheet name="Strs" sheetId="6" r:id="rId2"/>
+    <sheet name="DATE" sheetId="5" r:id="rId3"/>
     <sheet name="S" sheetId="3" r:id="rId4"/>
     <sheet name="O" sheetId="4" r:id="rId5"/>
     <sheet name="U" sheetId="2" r:id="rId6"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="295">
   <si>
     <t>FUNCIONES</t>
   </si>
@@ -976,6 +976,985 @@
   [2]=&gt; int(2)
   [3]=&gt; int(3)
 }</t>
+  </si>
+  <si>
+    <t>array_diff()</t>
+  </si>
+  <si>
+    <t>Calcula la diferencia entre arrays. Compara array1 con uno o más arrays y devuelve los valores de 
+array1 que no estén presentes en ninguno de los otros arrays</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;?php
+$array1    = array("a" =&gt; "green", "red", "blue", "red");
+$array2    = array("b" =&gt; "green", "yellow", "red");
+$resultado = array_diff($array1, $array2);
+print_r($resultado);
+?&gt;
+Array
+(
+    [1] =&gt; blue
+)
+</t>
+  </si>
+  <si>
+    <t>array_reduce()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;?php
+function suma($carry, $item)
+{
+    $carry += $item;
+    return $carry;
+}
+function producto($carry, $item)
+{
+    $carry *= $item;
+    return $carry;
+}
+$a = array(1, 2, 3, 4, 5);
+$x = array();
+var_dump(array_reduce($a, "suma")); // int(15)
+var_dump(array_reduce($a, "producto", 10)); // int(1200), ya que: 10*1*2*3*4*5
+var_dump(array_reduce($x, "suma", "No hay datos a reducir")); // string(22) "No hay datos a reducir"
+?&gt;
+</t>
+  </si>
+  <si>
+    <t>Reduce iterativamente un array a un valor usando una función llamada de retorno. El primer parámetro es el array, el segundo es el nombre de la función de retorno creada.</t>
+  </si>
+  <si>
+    <t>array_map()</t>
+  </si>
+  <si>
+    <t>Devuelve un array que contiene todos los elementos de array1 después de haber aplciado la función callback a cada una de ellos. El número de parámetros que la función callback acepta debería 
+coincidir con el número de arrays proporcionados a array_map()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;?php
+function cube($n)
+{
+    return($n * $n * $n);
+}
+$a = array(1, 2, 3, 4, 5);
+$b = array_map("cube", $a);
+print_r($b);
+?&gt;
+Array
+(
+    [0] =&gt; 1
+    [1] =&gt; 8
+    [2] =&gt; 27
+    [3] =&gt; 64
+    [4] =&gt; 125
+)
+</t>
+  </si>
+  <si>
+    <t>array_fill_keys()</t>
+  </si>
+  <si>
+    <t>Llena un array con el valor del parámetro value, usando los valores del array como claves. El primer parámetro es el array con los valores que serán usados como keys y el segundo el valor usado para
+el llenado. Devuelve la matriz llena.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;?php
+$keys = array('foo', 5, 10, 'bar');
+$a = array_fill_keys($keys, 'banana');
+print_r($a);
+?&gt;
+Array
+(
+    [foo] =&gt; banana
+    [5] =&gt; banana
+    [10] =&gt; banana
+    [bar] =&gt; banana
+)
+</t>
+  </si>
+  <si>
+    <t>chr()</t>
+  </si>
+  <si>
+    <t>ord()</t>
+  </si>
+  <si>
+    <t>Interpreta el valor binario del primer byte de string como un entero sin signo entre 0 y 255.
+Si el string está en codificación de byte único, como ASCII, ISO-8859 o Windows 1252, esto es equivalente a devolver la posición del carácter de la tabla de correspondencia del conjunto de caracteres. Sin embargo, observe que esta función no conoce la codificación del string, por lo que nunca identificará un punto de código Unicode en una codificación multibyte tal como UTF-8 o UTF-16.
+Esta función complementa a chr().
+Tiene como parámetro un string</t>
+  </si>
+  <si>
+    <t>&lt;?php
+$str = "\n";
+if (ord($str) == 10) {
+    echo "El primer caracter de \$str es un salto de linea.\n";
+}
+?&gt;</t>
+  </si>
+  <si>
+    <t>Devuelve una cadena de un carácter que conteiene el carácter especifiado por ascii.
+Esta función complementa a ord().
+Tiene como parámetro un entero del código ASCII</t>
+  </si>
+  <si>
+    <t>&lt;?php
+$str = "La cadena termina en un escape: ";
+$str .= chr(27); /* añade un carácter de escape al final de  $str */
+/* A menudo esto es más útil */
+$str = sprintf("TLa cadena termina en un escape: %c", 27);
+?&gt;</t>
+  </si>
+  <si>
+    <t>trim()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Elimina espacio en blanco u otro tipo de caracteres del inicio y el final de la cadena
+Esta función devuelve una cadena con los espacios en blanco eliminados del inicio y final del str. sin el segundo parámetro, trim() eliminará estos caracteres:
+" " (ASCII 32 (0x20)), espacio simple.
+"\t" (ASCII 9 (0x09)), tabulación.
+"\n" (ASCII 10 (0x0A)), salto de línea.
+"\r" (ASCII 13 (0x0D)), retorno de carro.
+"\0" (ASCII 0 (0x00)), el byte NUL.
+"\x0B" (ASCII 11 (0x0B)), tabulación vertical.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;?php
+$text   = "\t\tThese are a few words :) ...  ";
+$binary = "\x09Example string\x0A";
+$hello  = "Hello World";
+var_dump($text, $binary, $hello);
+print "\n";
+$trimmed = trim($text);
+var_dump($trimmed);
+$trimmed = trim($text, " \t.");
+var_dump($trimmed);
+$trimmed = trim($hello, "Hdle");
+var_dump($trimmed);
+$trimmed = trim($hello, 'HdWr');
+var_dump($trimmed);
+// Elimina los caracteres de control ASCII al inicio y final de $binary
+// (from 0 to 31 inclusive)
+$clean = trim($binary, "\x00..\x1F");
+var_dump($clean);
+?&gt;
+</t>
+  </si>
+  <si>
+    <t>Retira espacios en blanco (u otros caracteres) del inicio de un string</t>
+  </si>
+  <si>
+    <t>$text = "\t\tThese are a few words :) ...  ";
+$trimmed = ltrim($text);
+var_dump($trimmed);</t>
+  </si>
+  <si>
+    <t>rtrim()</t>
+  </si>
+  <si>
+    <t>Retira espacios en blanco (u otros caracteres) del final de un string</t>
+  </si>
+  <si>
+    <t>ltrim()
+o
+chop() (alias)</t>
+  </si>
+  <si>
+    <t>chunk_split()</t>
+  </si>
+  <si>
+    <t>Puede ser utilizar para dividir una cadena en trozos más pequeños, lo que es útil.
+Primer parámetro es la cadena que será fragmentada, el segundo la longitud del trozo y un tercero (opcional) para indicar la sentencia de fin de línea.</t>
+  </si>
+  <si>
+    <t>&lt;?php
+function chunk_split_unicode($str, $l = 76, $e = "\r\n") {
+    $tmp = array_chunk(
+        preg_split("//u", $str, -1, PREG_SPLIT_NO_EMPTY), $l);
+    $str = "";
+    foreach ($tmp as $t) {
+        $str .= join("", $t) . $e;
+    }
+    return $str;
+}
+$str = "Yarım kilo çay, yarım kilo şeker";
+echo chunk_split($str, 4) ."\n";
+echo chunk_split_unicode($str, 4);
+?&gt;
+Yar�
+�m k
+ilo
+çay
+, ya
+rım
+kil
+o ş
+eker</t>
+  </si>
+  <si>
+    <t>explode()</t>
+  </si>
+  <si>
+    <t>Devuelve un array de string, siendo cada uno un substring del parámetro string formado por la 
+división realizada por los delimintadores indicados en el parámetro string .
+Se pone primero el delimitador, luego el string</t>
+  </si>
+  <si>
+    <t>&lt;?php
+// Ejemplo 1
+$pizza  = "porción1 porción2 porción3 porción4 porción5 porción6";
+$porciones = explode(" ", $pizza);
+echo $porciones[0]; // porción1
+echo $porciones[1]; // porción2
+// Ejemplo 2
+$datos = "foo:*:1023:1000::/home/foo:/bin/sh";
+list($user, $pass, $uid, $gid, $gecos, $home, $shell) = explode(":", $datos);
+echo $user; // foo
+echo $pass; // *
+?&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Une elementos de un array en un string
+Parámetros ¶
+separator
+Opcional. Por defecto es un string vacío.
+array
+El array de strings a ser usados por implode.
+</t>
+  </si>
+  <si>
+    <t>&lt;?php
+$array = ['lastname', 'email', 'phone'];
+var_dump(implode(",", $array)); // string(20) "lastname,email,phone"
+// Devuelve un string vacío si se usa un array vacío:
+var_dump(implode('hello', [])); // string(0) ""
+// El separador es opcional:
+var_dump(implode(['a', 'b', 'c'])); // string(3) "abc"
+?&gt;</t>
+  </si>
+  <si>
+    <t>sprintf()</t>
+  </si>
+  <si>
+    <t>Devuelve un string producido según el string de formateo dado por format.
+Recibe como parámetro el formato.
+(VER DOCUMENTACIÓN)</t>
+  </si>
+  <si>
+    <t>&lt;?php
+$formato = 'El %2$s contiene %1$d monos';
+echo sprintf($formato, $num, $ubicación);
+?&gt;</t>
+  </si>
+  <si>
+    <t>str_split()</t>
+  </si>
+  <si>
+    <t>Convierte un string en un array.
+Recibe como primer argumento el string de entrada, de sengundo la longitud máxima del 
+fragmento.
+Si no se especifica la longitud máxima, los fragmentos tendrán una longitud de 1 carácter.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;?php
+$str = "Hello Friend";
+$arr1 = str_split($str);
+$arr2 = str_split($str, 3);
+print_r($arr1);
+print_r($arr2);
+?&gt;
+Array
+(
+    [0] =&gt; H
+    [1] =&gt; e
+    [2] =&gt; l
+    [3] =&gt; l
+    [4] =&gt; o
+    [5] =&gt;
+    [6] =&gt; F
+    [7] =&gt; r
+    [8] =&gt; i
+    [9] =&gt; e
+    [10] =&gt; n
+    [11] =&gt; d
+)
+Array
+(
+    [0] =&gt; Hel
+    [1] =&gt; lo
+    [2] =&gt; Fri
+    [3] =&gt; end
+)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cuenta el número de apariciones de cada byte-value (0..255) en string y lo devuelve de varias maneras.
+Su primer parámetro es la cadena que se va a examinar y pude tener un segundo argumento que
+indica cómo se devuelven. Este segundo carácter tiene como valores:
+0 - un array con el byte-value como clave y la frecuencia de cada uno como valor.
+1 - Como el 0, pero listando únicamente los byte-values con frecuencia superior a cero.
+2 - Como el 0, pero listando únicamente los byte-values con frecuencia igual a 0.
+3 - devuelve una cadena que contiene todos los caracteres únicos.
+4 - devuelve una cadena que contiene todos los caracteres no utilizados.
+</t>
+  </si>
+  <si>
+    <t>&lt;?php
+$data = "Two Ts and one F.";
+foreach (count_chars($data, 1) as $i =&gt; $val) {
+   echo "Se ha encontrado $val instancia (s) de \"" , chr($i) , "\" en la cadena.\n";
+}
+?&gt;</t>
+  </si>
+  <si>
+    <t>strpos()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Encuentra la posición numérica de la primera ocurrencia de un substring en un string.
+Recibe como parámetros el string dónde se va a buscar, la subcadena que se quiere buscar y si
+se especifica puede haber un tercer parámetro que indica desde dónde se quiere empezar a contar.
+Devuelve un boolean.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;?php
+$mystring = 'abc';
+$findme   = 'a';
+$pos = strpos($mystring, $findme);
+// Nótese el uso de ===. Puesto que == simple no funcionará como se espera
+// porque la posición de 'a' está en el 1° (primer) caracter.
+if ($pos === false) {
+    echo "La cadena '$findme' no fue encontrada en la cadena '$mystring'";
+} else {
+    echo "La cadena '$findme' fue encontrada en la cadena '$mystring'";
+    echo " y existe en la posición $pos";
+}
+?&gt;
+</t>
+  </si>
+  <si>
+    <t>stripos()</t>
+  </si>
+  <si>
+    <t>Igual que strpos() pero NO considera mayúsculas ni minúsculas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;?php
+$findme    = 'a';
+$mystring1 = 'xyz';
+$mystring2 = 'ABC';
+$pos1 = stripos($mystring1, $findme);
+$pos2 = stripos($mystring2, $findme);
+// No, 'a' sin duda no está en 'xyz'
+if ($pos1 === false) {
+    echo "El string '$findme' no se encontró en el strng '$mystring1'";
+}
+// Observe el uso de ===.  Usar solamente == no funcionará como se espera
+// debido a que la posición de 'a' es el 0º (primer) caracter.
+if ($pos2 !== false) {
+    echo "Se encontró '$findme' en '$mystring2' en la posición $pos2";
+}
+?&gt;
+</t>
+  </si>
+  <si>
+    <t>strrpos()</t>
+  </si>
+  <si>
+    <t>Igual que strpos() pero en vez de la primera aparición, la última</t>
+  </si>
+  <si>
+    <t>&lt;?php
+$foo = "0123456789a123456789b123456789c";
+var_dump(strrpos($foo, '7', -5));  // Comienza mirando hacia atrás cinco posiciones 
+                                   // desde el final. Resultado: int(17)
+var_dump(strrpos($foo, '7', 20));  // Inicia la búsqueda 20 posiciones en el
+                                   // string. Resultado: int(27)
+var_dump(strrpos($foo, '7', 28));  // Resultado: bool(false)
+?&gt;</t>
+  </si>
+  <si>
+    <t>strripos()</t>
+  </si>
+  <si>
+    <t>Igual que stripos() pero en vez de la primera instancia, la última</t>
+  </si>
+  <si>
+    <t>Devuelve parte del string que se pasa como parámetro iniciando desde e incluye la primera
+aparición del substring hasta el final de la cadena principa. Sensible a mayúsculas.
+Si solo quieres saber si se encuentra dentro de la cadena es mejor usar strpos().
+Tiene como parametros, la cadena principal, el substring y puede tener un tercero que es un 
+boolean y si pones true te devuelve la parte anterior al substring a excepción de este.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;?php
+$email  = 'name@example.com';
+$domain = strstr($email, '@');
+echo $domain; // mostrará @example.com
+$user = strstr($email, '@', true); // Desde PHP 5.3.0
+echo $user; // mostrará name
+?&gt;
+</t>
+  </si>
+  <si>
+    <t>stristr()</t>
+  </si>
+  <si>
+    <t>Lo mismo que strstr() pero insensible a mayúsculas y minúsculas</t>
+  </si>
+  <si>
+    <t>strrchr()</t>
+  </si>
+  <si>
+    <t>Encuentra la última aparición de un carácter en un string. El primer parámetro es la cadena 
+principal y el segundo el carácter a buscar.</t>
+  </si>
+  <si>
+    <t>&lt;?php
+// reverse strrchr() - PHP v4.0b3 and above
+function reverse_strrchr($haystack, $needle)
+{
+    $pos = strrpos($haystack, $needle);
+    if($pos === false) {
+        return $haystack;
+    }
+    return substr($haystack, 0, $pos + 1);
+}
+?&gt;</t>
+  </si>
+  <si>
+    <t>crypt()</t>
+  </si>
+  <si>
+    <t>Devolverá el hash de un string utilizando el algoritmo estándar basado en DES de Unix o algoritmo
+alternativos que puedan estar disponibles en el sistema.</t>
+  </si>
+  <si>
+    <t>&lt;?php
+$hashed_password = crypt('mypassword'); // dejar que el salt se genera automáticamente
+/* Se deben pasar todos los resultados de crypt() como el salt para la comparación de una
+   contraseña, para evitar problemas cuando diferentes algoritmos hash son utilizados. (Como
+   se dice arriba, el hash estándar basado en DES utiliza un salt de 2
+   caracteres, pero el hash basado en MD5 utiliza 12.) */
+if (hash_equals($hashed_password, crypt($user_input, $hashed_password))) {
+   echo "¡Contraseña verificada!";
+}
+?&gt;</t>
+  </si>
+  <si>
+    <t>hash_equals()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comparación de strings segura contra ataques de temporización. Devuelve true o false.
+Esta función debería utilizarse para mitigar los ataques de temporización, por ejemplo, al probar hash de contraseñas de crypt().
+Parámetros ¶
+known_string
+El string de longitud conocida con el que comparar
+user_string
+El string proporcionado por el usuario
+</t>
+  </si>
+  <si>
+    <t>md5()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NO RECOMENDABLE PARA CONTRASEÑAS SEGURAS.
+Calcula el hash MD5 de str utilizando el » Algoritmo MD5 Message-Digest de RSA Data 
+Security, Inc. y devuelve ese hash.
+Parámetros ¶
+str
+El string.
+raw_output
+Si se establece el raw_output opcional en true, el resumen md5 será devuelto en formato binario 
+sin tratar con una longitud de 16.
+</t>
+  </si>
+  <si>
+    <t>&lt;?php
+$str = 'apple';
+if (md5($str) === '1f3870be274f6c49b3e31a0c6728957f') {
+    echo "Would you like a green or red apple?";
+}
+?&gt;</t>
+  </si>
+  <si>
+    <t>fprintf()</t>
+  </si>
+  <si>
+    <t>Escribe una cadena producida de acuerda a format al recurso de secuencias especificado por 
+el recurso. Devuelve la longitud de la cadena impresa.</t>
+  </si>
+  <si>
+    <t>&lt;?php
+if (!($da = fopen('fecha.txt', 'w')))
+    return;
+fprintf($da, "%04d-%02d-%02d", $anyo, $mes, $dia);
+// escribe la fecha en formato ISO a fecha.txt
+?&gt;</t>
+  </si>
+  <si>
+    <t>hebrev()</t>
+  </si>
+  <si>
+    <t>Convierte texto hebreo lógico a texto visual. El primer parámetro es una cadena hebrea y el 
+segundo es opcional y es el número máximo de caracteres por línea que será devuelto.</t>
+  </si>
+  <si>
+    <t>implode()
+o
+join(alias)</t>
+  </si>
+  <si>
+    <t>lcfirst()</t>
+  </si>
+  <si>
+    <t>Devuelve un string con el primer carácter de la cadena en minúscula si ese carácter es alfabético.
+'Alfabético' está configurado por la recgión actual.</t>
+  </si>
+  <si>
+    <t>&lt;?php
+$foo = 'HelloWorld';
+$foo = lcfirst($foo);             // helloWorld
+$bar = 'HELLO WORLD!';
+$bar = lcfirst($bar);             // hELLO WORLD!
+$bar = lcfirst(strtoupper($bar)); // hELLO WORLD!
+?&gt;</t>
+  </si>
+  <si>
+    <t>ucfirst()</t>
+  </si>
+  <si>
+    <t>ucwords()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Convierte a mayúsculas el primer carácter de cada palabra de una cadena. Devuelve la cadena
+modificada
+Parámetros ¶
+str
+La cadena de entrada.
+delimiters
+El parámetro opcional delimiters contiene los caracteres separadores de palabras. Por defecto, 
+son espacios.
+</t>
+  </si>
+  <si>
+    <t>&lt;?php
+$foo = 'hello|world!';
+$bar = ucwords($foo);             // Hello|world!
+$baz = ucwords($foo, "|");        // Hello|World!
+?&gt;</t>
+  </si>
+  <si>
+    <t>Lo mismo que lcfirst() pero a mayúscula.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;?php
+$foo = 'hello world!';
+$foo = ucfirst($foo);             // Hello world!
+$bar = 'HELLO WORLD!';
+$bar = ucfirst($bar);             // HELLO WORLD!
+$bar = ucfirst(strtolower($bar)); // Hello world!
+?&gt;
+</t>
+  </si>
+  <si>
+    <t>strtolower()</t>
+  </si>
+  <si>
+    <t>Convierte un string a minúsculas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;?php
+$str = "Mary Had A Little Lamb and She LOVED It So";
+$str = strtolower($str);
+echo $str; // Imprime mary had a little lamb and she loved it s
+?&gt;
+</t>
+  </si>
+  <si>
+    <t>strtoupper()</t>
+  </si>
+  <si>
+    <t>Convierte un string a mayúsculas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;?php
+$str = "Mary Had A Little Lamb and She LOVED It So";
+$str = strtoupper($str);
+echo $str; // muestra: MARY HAD A LITTLE LAMB AND SHE LOVED IT SO
+?&gt;
+</t>
+  </si>
+  <si>
+    <t>mb_convert_case()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Realiza una conversión a mayúsculas/minúsculas en un string, según el modo especificado.
+Primer parámetro, la cadena. 
+El segundo el modo de conversión que puede ser: MB_CASE_UPPER, MB_CASE_LOWER o MB_CASE_TITLE.
+El tercer parámetro es la codificación de caracteres. Si se omite, se usa la codificación de caracteres interna.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;?php
+$str = "mary had a Little lamb and she loved it so";
+$str = mb_convert_case($str, MB_CASE_UPPER, "UTF-8");
+echo $str; // Muestra MARY HAD A LITTLE LAMB AND SHE LOVED IT SO
+$str = mb_convert_case($str, MB_CASE_TITLE, "UTF-8");
+echo $str; // Muestra Mary Had A Little Lamb And She Loved It So
+?&gt;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> setlocale()</t>
+  </si>
+  <si>
+    <t>Establece información del localismo (PARA MAS INFO, DOCUMENTACION).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;?php
+/* Establecer el localismo al holandés */
+setlocale(LC_ALL, 'nl_NL');
+/* Muestra: vrijdag 22 december 1978 */
+echo strftime("%A %e %B %Y", mktime(0, 0, 0, 12, 22, 1978));
+/* Probar diferentes nombres posibles de localismos para el alemán */
+$loc_de = setlocale(LC_ALL, 'de_DE@euro', 'de_DE', 'de', 'ge');
+echo "El localismo preferido para el alemán en este sistema es '$loc_de'";
+?&gt;
+</t>
+  </si>
+  <si>
+    <t>similar_text()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Calcula la similitud entre dos strings. Los primeros parámetros son las cadenas a comparar.
+El tercero hace que calcule la similitud en porcentaje al pasarle una referencia.
+Devuelve el número de caracteres coincidentes en ambos strings.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hey there,
+Be aware when using this function, that the order of passing the strings is very important if you want to calculate the percentage of similarity, in fact, altering the variables will give a very different result, example :
+&lt;?php
+$var_1 = 'PHP IS GREAT';
+$var_2 = 'WITH MYSQL';
+similar_text($var_1, $var_2, $percent);
+echo $percent;
+// 27.272727272727
+similar_text($var_2, $var_1, $percent);
+echo $percent;
+// 18.181818181818
+?&gt;
+</t>
+  </si>
+  <si>
+    <t>strstr()
+o
+strchr() (alias)</t>
+  </si>
+  <si>
+    <t>str_contains()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;?php
+$string = 'The lazy fox jumped over the fence';
+if (str_contains($string, 'lazy')) {
+    echo "The string 'lazy' was found in the string\n";
+}
+if (str_contains($string, 'Lazy')) {
+    echo 'The string "Lazy" was found in the string';
+} else {
+    echo '"Lazy" was not found because the case does not match';
+}
+</t>
+  </si>
+  <si>
+    <t>Deterina si una cadena contiene la subcadena pasada. Devuelve un boolean.
+El primer parámetro es la cadena principal, el segundo la subcadena.
+Diferencia entre mayúsculas y minúsculas.</t>
+  </si>
+  <si>
+    <t>str_starts_with()</t>
+  </si>
+  <si>
+    <t>str_end_with()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comprueba si una cadena finaliza con la subcadena pasada. Devuelve un boolean.
+El primer parámetro es la cadena principal, el segundo la subcadena.
+Diferencia entre mayúsculas y minúsculas.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;?php
+if (str_ends_with('abc', '')) {
+    echo "All strings end with the empty string";
+}
+?&gt;
+$string = 'The lazy fox jumped over the fence';
+if (str_ends_with($string, 'fence')) {
+    echo "The string ends with 'fence'\n";
+}
+if (str_ends_with($string, 'Fence')) {
+    echo 'The string ends with "fence"';
+} else {
+    echo '"fence" was not found because the case does not match';
+}
+?&gt;
+</t>
+  </si>
+  <si>
+    <t>Comprueba si una cadena inicia con la subcadena pasada. Devuelve un boolean.
+El primer parámetro es la cadena principal, el segundo la subcadena.
+Diferencia entre mayúsculas y minúsculas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;?php
+$string = 'The lazy fox jumped over the fence';
+if (str_starts_with($string, 'The')) {
+    echo "The string starts with 'The'\n";
+}
+if (str_starts_with($string, 'the')) {
+    echo 'The string starts with "the"';
+} else {
+    echo '"the" was not found because the case does not match';
+}
+?&gt;
+</t>
+  </si>
+  <si>
+    <t>str_replace()</t>
+  </si>
+  <si>
+    <t>Reemplaza todas las apariciones del string buscado con el string de reemplazo.
+Devuelve un stringo con todas las apariciones de la cadena a buscar en la cadena principal.
+El primer parametro es el valor que se busca en la cadena, el segundo por lo que se quiere 
+cambiar, el tercero la cadena principal y hay un 4 parametro con el que se establece el numero
+de reemplazos realizados.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;?php
+// Produce: &lt;body text='black'&gt;
+$bodytag = str_replace("%body%", "black", "&lt;body text='%body%'&gt;");
+// Produce: Hll Wrld f PHP
+$vowels = array("a", "e", "i", "o", "u", "A", "E", "I", "O", "U");
+$onlyconsonants = str_replace($vowels, "", "Hello World of PHP");
+// Produce: You should eat pizza, beer, and ice cream every day
+$phrase  = "You should eat fruits, vegetables, and fiber every day.";
+$healthy = array("fruits", "vegetables", "fiber");
+$yummy   = array("pizza", "beer", "ice cream");
+$newphrase = str_replace($healthy, $yummy, $phrase);
+// Produce: 2
+$str = str_replace("ll", "", "good golly miss molly!", $count);
+echo $count;
+?&gt;
+</t>
+  </si>
+  <si>
+    <t>str_ireplace()</t>
+  </si>
+  <si>
+    <t>Lo mismo pero no tiene en cuenta las mayusculas ni las minusculas</t>
+  </si>
+  <si>
+    <t>str_pad()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rellena un string hasta una longitud determinada con otro string.
+Su primer parámetro es la cadena principal, el segundo la longitud de relleno, el tercero la cadena
+que se quiere usar para rellenar y el cuarto un rgumento opcional pad_type puede ser STR_PAD_RIGHT, STR_PAD_LEFT, o STR_PAD_BOTH. Si no se especifica pad_type se asume como STR_PAD_RIGHT.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;?php
+$input = "Alien";
+echo str_pad($input, 10);                      // produce "Alien     "
+echo str_pad($input, 10, "-=", STR_PAD_LEFT);  // produce "-=-=-Alien"
+echo str_pad($input, 10, "_", STR_PAD_BOTH);   // produce "__Alien___"
+echo str_pad($input,  6, "___");               // produces "Alien_"
+echo str_pad($input,  3, "*");                 // produces "Alien"
+?&gt;
+</t>
+  </si>
+  <si>
+    <t>str_repeat()</t>
+  </si>
+  <si>
+    <t>Devuelve la cadena repetidas X veces. Primero el string, luego el numero de veces que se quiere 
+repetir, debe ser mayor o igual a 0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;?php
+echo str_repeat("-=", 10);
+?&gt;
+-=-=-=-=-=-=-=-=-=-=
+</t>
+  </si>
+  <si>
+    <t>str_shuffle()</t>
+  </si>
+  <si>
+    <t>Baraja una cadena. Recibe como argumento un string y lo devuelve barajado</t>
+  </si>
+  <si>
+    <t>&lt;?php
+$cadena = 'abcdef';
+$desordenada = str_shuffle($cadena);
+// Esto imprime algo como: bfdaec
+echo $desordenada;
+?&gt;</t>
+  </si>
+  <si>
+    <t>str_word_count()</t>
+  </si>
+  <si>
+    <t>Cuenta el numero de palabras dentro de una cadena. Si no se especifica cómo queremos que nos devuelva el resultado, devolverá un entero. Para especificar el formato ponemos como segundo
+argumento 0 para el numero de palabras encontradas, 1 para un array con todas las palabras 
+encontradas dentro del string o 2 para un array asociativo con claves con la posicion numerica y el valor es la palabra. Puede haber un 3 parametro que indica qué caracteres adicionales 
+queremos que sean considerados como de la palabra</t>
+  </si>
+  <si>
+    <t>&lt;?php
+$str = "Hello fri3nd, you're
+       looking          good today!";
+print_r(str_word_count($str, 2));
+print_r(str_word_count($str, 1, 'àáãç3'));
+echo str_word_count($str);
+?&gt;
+Array
+(
+    [0] =&gt; Hello
+    [6] =&gt; fri
+    [10] =&gt; nd
+    [14] =&gt; you're
+    [29] =&gt; looking
+    [46] =&gt; good
+    [51] =&gt; today
+)
+Array
+(
+    [0] =&gt; Hello
+    [1] =&gt; fri3nd
+    [2] =&gt; you're
+    [3] =&gt; looking
+    [4] =&gt; good
+    [5] =&gt; today
+)</t>
+  </si>
+  <si>
+    <t>substr()</t>
+  </si>
+  <si>
+    <t>Devuelve parte de una cadena definica por la posicion de inicio y la longitud. (VER DOCUMENTO)</t>
+  </si>
+  <si>
+    <t>&lt;?php
+echo substr('abcdef', 1);     // bcdef
+echo substr('abcdef', 1, 3);  // bcd
+echo substr('abcdef', 0, 4);  // abcd
+echo substr('abcdef', 0, 8);  // abcdef
+echo substr('abcdef', -1, 1); // f
+// El acceso a caracteres específicos en una cadena 
+// se puede conseguir usando "corchetes"
+$string = 'abcdef';
+echo $string[0];                 // a
+echo $string[3];                 // d
+echo $string[strlen($string)-1]; // f
+?&gt;</t>
+  </si>
+  <si>
+    <t>substr_count()</t>
+  </si>
+  <si>
+    <t>Devuelve el numero de veces en los que aparece la subcadena en la cadena principal. Es sensible
+a mayusculas y minusculas.
+Primer parámetro, cadena principal. Segundo parametro, la subcadena. Tercero, índice por el que
+empezar a contar. Cuarto, longitud máxima después del desplazamiento especificado para buscar
+la subcadena.</t>
+  </si>
+  <si>
+    <t>&lt;?php
+$text = 'This is a test';
+echo strlen($text); // 14
+echo substr_count($text, 'is'); // 2
+// el string es reducido a 's is a test', así que muestra 1
+echo substr_count($text, 'is', 3);
+// el texto es reducido a 's i', así que muestra 0
+echo substr_count($text, 'is', 3, 3);
+// genera una advertencia debido a que 5+10 &gt; 14
+echo substr_count($text, 'is', 5, 10);
+// muestra sólo 1, debido a que no cuenta subcadenas traslapadas.
+$text2 = 'gcdgcdgcd';
+echo substr_count($text2, 'gcdgcd');
+?&gt;</t>
+  </si>
+  <si>
+    <t>strlen()</t>
+  </si>
+  <si>
+    <t>Devuelve la longitud de la cadena</t>
+  </si>
+  <si>
+    <t>&lt;?php
+$str = 'abcdef';
+echo strlen($str); // 6
+$str = ' ab cd ';
+echo strlen($str); // 7
+?&gt;</t>
+  </si>
+  <si>
+    <t>strrev()</t>
+  </si>
+  <si>
+    <t>Invierte una cadena</t>
+  </si>
+  <si>
+    <t>&lt;?php
+echo strrev("Hello world!"); // outputs "!dlrow olleH"
+?&gt;</t>
+  </si>
+  <si>
+    <t>strtok()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Divide una cadena en strings más pequeños con cada token delimitado por cualquier carácter que 
+le indiquemos. Primero, el string a dividir, luego el delimitador.
+Solo la primera llamada a strtok utiliza el argumento string. Cada llamada subsecuente a strtok sólo necesita el token a utilizar, ya que realiza un seguimiento del lugar en que se encuentra en el string actual. </t>
+  </si>
+  <si>
+    <t>&lt;?php
+$first_token  = strtok('/something', '/');
+$second_token = strtok('/');
+var_dump($first_token, $second_token);
+?&gt;
+&lt;?php
+$first_token  = strtok('/something', '/');
+$second_token = strtok('/');
+var_dump($first_token, $second_token);
+?&gt;</t>
+  </si>
+  <si>
+    <t>strtr()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Convierte caracteres o reemplaza substrings
+string
+El string a convertir.
+from
+El string a convertir a to.
+to
+El string que reemplaza a from.
+replace_pairs
+El parámetro replace_pairs se podría usar en lugar de to y from, en cuyo caso sería un array en la forma array('from' =&gt; 'to', ...).
+</t>
+  </si>
+  <si>
+    <t>&lt;?php
+$conv = array("h" =&gt; "-", "hola" =&gt; "hey", "hey" =&gt; "hola");
+echo strtr("hey, dije hola", $conv);
+?&gt;
+hola, dije hey</t>
   </si>
 </sst>
 </file>
@@ -1638,10 +2617,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE4C0BA5-67CA-4BF0-AF87-5886AC2AB380}">
-  <dimension ref="A1:D56"/>
+  <dimension ref="A1:D57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B42" sqref="B42:B43"/>
+    <sheetView topLeftCell="A3" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection sqref="A1:C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1822,7 +2801,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="230.4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" ht="230.4" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
         <v>59</v>
       </c>
@@ -1833,7 +2812,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
         <v>93</v>
       </c>
@@ -1842,336 +2821,360 @@
       </c>
       <c r="C18" s="8"/>
     </row>
-    <row r="19" spans="1:4" ht="201.6" x14ac:dyDescent="0.3">
-      <c r="A19" s="17" t="s">
+    <row r="19" spans="1:3" ht="230.4" x14ac:dyDescent="0.3">
+      <c r="A19" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="B19" s="13" t="s">
+        <v>162</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="201.6" x14ac:dyDescent="0.3">
+      <c r="A20" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="B19" s="13" t="s">
+      <c r="B20" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="C19" s="8" t="s">
+      <c r="C20" s="8" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="216" x14ac:dyDescent="0.3">
-      <c r="A20" s="17" t="s">
+    <row r="21" spans="1:3" ht="216" x14ac:dyDescent="0.3">
+      <c r="A21" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="B20" s="13" t="s">
+      <c r="B21" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="C20" s="8" t="s">
+      <c r="C21" s="8" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="201.6" x14ac:dyDescent="0.3">
-      <c r="A21" s="5" t="s">
+    <row r="22" spans="1:3" ht="201.6" x14ac:dyDescent="0.3">
+      <c r="A22" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="B21" s="13" t="s">
+      <c r="B22" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="C21" s="8" t="s">
+      <c r="C22" s="8" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="216" x14ac:dyDescent="0.3">
-      <c r="A22" s="5" t="s">
+    <row r="23" spans="1:3" ht="216" x14ac:dyDescent="0.3">
+      <c r="A23" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="B22" s="13" t="s">
+      <c r="B23" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="C22" s="8" t="s">
+      <c r="C23" s="8" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="187.2" x14ac:dyDescent="0.3">
-      <c r="A23" s="5" t="s">
+    <row r="24" spans="1:3" ht="187.2" x14ac:dyDescent="0.3">
+      <c r="A24" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="B23" s="13" t="s">
+      <c r="B24" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="C23" s="8" t="s">
+      <c r="C24" s="8" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A24" s="5" t="s">
+    <row r="25" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A25" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="B24" s="13" t="s">
+      <c r="B25" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="C24" s="8" t="s">
+      <c r="C25" s="8" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="244.8" x14ac:dyDescent="0.3">
-      <c r="A25" s="17" t="s">
+    <row r="26" spans="1:3" ht="244.8" x14ac:dyDescent="0.3">
+      <c r="A26" s="17" t="s">
         <v>77</v>
       </c>
-      <c r="B25" s="13" t="s">
+      <c r="B26" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="C25" s="8" t="s">
+      <c r="C26" s="8" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="5" t="s">
+    <row r="27" spans="1:3" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="B26" s="13" t="s">
+      <c r="B27" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="C26" s="25" t="s">
+      <c r="C27" s="25" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A27" s="20" t="s">
+    <row r="28" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A28" s="20" t="s">
         <v>118</v>
       </c>
-      <c r="B27" s="13" t="s">
+      <c r="B28" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="C27" s="26"/>
-    </row>
-    <row r="28" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A28" s="5" t="s">
+      <c r="C28" s="26"/>
+    </row>
+    <row r="29" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A29" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="B28" s="13" t="s">
+      <c r="B29" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="C28" s="26"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29" s="5" t="s">
+      <c r="C29" s="26"/>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="B29" s="13" t="s">
+      <c r="B30" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="C29" s="26"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30" s="5" t="s">
+      <c r="C30" s="26"/>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="B30" s="13" t="s">
+      <c r="B31" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="C30" s="27"/>
-    </row>
-    <row r="31" spans="1:4" ht="172.8" x14ac:dyDescent="0.3">
-      <c r="A31" s="17" t="s">
+      <c r="C31" s="27"/>
+    </row>
+    <row r="32" spans="1:3" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="A32" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="B31" s="13" t="s">
+      <c r="B32" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="C31" s="8" t="s">
+      <c r="C32" s="8" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="302.39999999999998" x14ac:dyDescent="0.3">
-      <c r="A32" s="17" t="s">
+    <row r="33" spans="1:4" ht="302.39999999999998" x14ac:dyDescent="0.3">
+      <c r="A33" s="17" t="s">
         <v>104</v>
       </c>
-      <c r="B32" s="13" t="s">
+      <c r="B33" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="C32" s="8" t="s">
+      <c r="C33" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="D32" s="19" t="s">
+      <c r="D33" s="19" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33" s="5" t="s">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="B33" s="13" t="s">
+      <c r="B34" s="13" t="s">
         <v>120</v>
       </c>
-      <c r="C33" s="8"/>
-      <c r="D33" s="19"/>
-    </row>
-    <row r="34" spans="1:4" ht="302.39999999999998" x14ac:dyDescent="0.3">
-      <c r="A34" s="5" t="s">
+      <c r="C34" s="8"/>
+      <c r="D34" s="19"/>
+    </row>
+    <row r="35" spans="1:4" ht="302.39999999999998" x14ac:dyDescent="0.3">
+      <c r="A35" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="B34" s="13" t="s">
+      <c r="B35" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="C34" s="8" t="s">
+      <c r="C35" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="D34" s="19"/>
-    </row>
-    <row r="35" spans="1:4" ht="246" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="5" t="s">
+      <c r="D35" s="19"/>
+    </row>
+    <row r="36" spans="1:4" ht="246" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="B35" s="13" t="s">
+      <c r="B36" s="13" t="s">
         <v>111</v>
       </c>
-      <c r="C35" s="8" t="s">
+      <c r="C36" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="D35" s="19"/>
-    </row>
-    <row r="36" spans="1:4" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A36" s="5" t="s">
+      <c r="D36" s="19"/>
+    </row>
+    <row r="37" spans="1:4" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A37" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="B36" s="13" t="s">
+      <c r="B37" s="13" t="s">
         <v>112</v>
       </c>
-      <c r="C36" s="8" t="s">
+      <c r="C37" s="8" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="201.6" x14ac:dyDescent="0.3">
-      <c r="A37" s="17" t="s">
+    <row r="38" spans="1:4" ht="201.6" x14ac:dyDescent="0.3">
+      <c r="A38" s="17" t="s">
         <v>102</v>
       </c>
-      <c r="B37" s="13" t="s">
+      <c r="B38" s="13" t="s">
         <v>116</v>
       </c>
-      <c r="C37" s="8" t="s">
+      <c r="C38" s="8" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="345.6" x14ac:dyDescent="0.3">
-      <c r="A38" s="5" t="s">
+    <row r="39" spans="1:4" ht="345.6" x14ac:dyDescent="0.3">
+      <c r="A39" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="B38" s="13" t="s">
+      <c r="B39" s="13" t="s">
         <v>126</v>
       </c>
-      <c r="C38" s="8" t="s">
+      <c r="C39" s="8" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="273.60000000000002" x14ac:dyDescent="0.3">
-      <c r="A39" s="5" t="s">
+    <row r="40" spans="1:4" ht="273.60000000000002" x14ac:dyDescent="0.3">
+      <c r="A40" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="B39" s="13" t="s">
+      <c r="B40" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="C39" s="8" t="s">
+      <c r="C40" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="D39" s="19" t="s">
+      <c r="D40" s="19" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="331.2" x14ac:dyDescent="0.3">
-      <c r="A40" s="5" t="s">
+    <row r="41" spans="1:4" ht="331.2" x14ac:dyDescent="0.3">
+      <c r="A41" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="B40" s="13" t="s">
+      <c r="B41" s="13" t="s">
         <v>150</v>
       </c>
-      <c r="C40" s="8" t="s">
+      <c r="C41" s="8" t="s">
         <v>151</v>
       </c>
-      <c r="D40" s="19"/>
-    </row>
-    <row r="41" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A41" s="21" t="s">
+      <c r="D41" s="19"/>
+    </row>
+    <row r="42" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A42" s="21" t="s">
         <v>132</v>
       </c>
-      <c r="B41" s="22" t="s">
+      <c r="B42" s="22" t="s">
         <v>133</v>
       </c>
-      <c r="C41" s="22"/>
-    </row>
-    <row r="42" spans="1:4" ht="259.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="36" t="s">
+      <c r="C42" s="22"/>
+    </row>
+    <row r="43" spans="1:4" ht="259.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="36" t="s">
         <v>134</v>
       </c>
-      <c r="B42" s="25" t="s">
+      <c r="B43" s="25" t="s">
         <v>135</v>
       </c>
-      <c r="C42" s="31" t="s">
+      <c r="C43" s="31" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="303" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="37"/>
-      <c r="B43" s="27"/>
-      <c r="C43" s="32"/>
-    </row>
-    <row r="44" spans="1:4" ht="144" x14ac:dyDescent="0.3">
-      <c r="A44" s="17" t="s">
+    <row r="44" spans="1:4" ht="303" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="37"/>
+      <c r="B44" s="27"/>
+      <c r="C44" s="32"/>
+    </row>
+    <row r="45" spans="1:4" ht="144" x14ac:dyDescent="0.3">
+      <c r="A45" s="17" t="s">
         <v>137</v>
       </c>
-      <c r="B44" s="13" t="s">
+      <c r="B45" s="13" t="s">
         <v>141</v>
       </c>
-      <c r="C44" s="8" t="s">
+      <c r="C45" s="8" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="345.6" x14ac:dyDescent="0.3">
-      <c r="A45" s="17" t="s">
+    <row r="46" spans="1:4" ht="345.6" x14ac:dyDescent="0.3">
+      <c r="A46" s="17" t="s">
         <v>143</v>
       </c>
-      <c r="B45" s="13" t="s">
+      <c r="B46" s="13" t="s">
         <v>144</v>
       </c>
-      <c r="C45" s="8" t="s">
+      <c r="C46" s="8" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="316.8" x14ac:dyDescent="0.3">
-      <c r="A46" s="5" t="s">
+    <row r="47" spans="1:4" ht="316.8" x14ac:dyDescent="0.3">
+      <c r="A47" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="B46" s="13" t="s">
+      <c r="B47" s="13" t="s">
         <v>140</v>
       </c>
-      <c r="C46" s="8" t="s">
+      <c r="C47" s="8" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="172.8" x14ac:dyDescent="0.3">
-      <c r="A47" s="5" t="s">
+    <row r="48" spans="1:4" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="A48" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="B47" s="13" t="s">
+      <c r="B48" s="13" t="s">
         <v>147</v>
       </c>
-      <c r="C47" s="8" t="s">
+      <c r="C48" s="8" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A48" s="5"/>
-      <c r="B48" s="13"/>
-      <c r="C48" s="8"/>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A49" s="5"/>
-      <c r="B49" s="13"/>
-      <c r="C49" s="8"/>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A50" s="5"/>
-      <c r="B50" s="13"/>
-      <c r="C50" s="8"/>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A51" s="5"/>
-      <c r="B51" s="13"/>
-      <c r="C51" s="8"/>
+    <row r="49" spans="1:3" ht="230.4" x14ac:dyDescent="0.3">
+      <c r="A49" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="B49" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="C49" s="8" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="408.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="B50" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="C50" s="8" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="288" x14ac:dyDescent="0.3">
+      <c r="A51" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="B51" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="C51" s="8" t="s">
+        <v>160</v>
+      </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" s="5"/>
@@ -2198,13 +3201,18 @@
       <c r="B56" s="13"/>
       <c r="C56" s="8"/>
     </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A57" s="5"/>
+      <c r="B57" s="13"/>
+      <c r="C57" s="8"/>
+    </row>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C26:C30"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="C27:C31"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="C43:C44"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -2212,6 +3220,538 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15781DA7-1F29-4D25-BD3A-E2070CCC16C8}">
+  <dimension ref="A1:C48"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A45" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B47" sqref="B47"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="21.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="87.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="24"/>
+      <c r="C1" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="A2" s="17" t="s">
+        <v>164</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="A3" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="144" x14ac:dyDescent="0.3">
+      <c r="A4" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>171</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="72" x14ac:dyDescent="0.3">
+      <c r="A6" s="20" t="s">
+        <v>177</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="C7" s="8"/>
+    </row>
+    <row r="8" spans="1:3" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="408.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>179</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="244.8" x14ac:dyDescent="0.3">
+      <c r="A10" s="17" t="s">
+        <v>181</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="230.4" x14ac:dyDescent="0.3">
+      <c r="A11" s="18" t="s">
+        <v>225</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A12" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="273.60000000000002" x14ac:dyDescent="0.3">
+      <c r="A13" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="360" x14ac:dyDescent="0.3">
+      <c r="A14" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="259.2" x14ac:dyDescent="0.3">
+      <c r="A15" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>201</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="C16" s="8"/>
+    </row>
+    <row r="17" spans="1:3" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="A17" s="20" t="s">
+        <v>250</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="B18" s="13" t="s">
+        <v>208</v>
+      </c>
+      <c r="C18" s="8"/>
+    </row>
+    <row r="19" spans="1:3" ht="187.2" x14ac:dyDescent="0.3">
+      <c r="A19" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="288" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="C20" s="25" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="A21" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="B21" s="13" t="s">
+        <v>216</v>
+      </c>
+      <c r="C21" s="27"/>
+    </row>
+    <row r="22" spans="1:3" ht="187.2" x14ac:dyDescent="0.3">
+      <c r="A22" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A23" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A24" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="B24" s="13" t="s">
+        <v>224</v>
+      </c>
+      <c r="C24" s="8"/>
+    </row>
+    <row r="25" spans="1:3" ht="144" x14ac:dyDescent="0.3">
+      <c r="A25" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="A26" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="A27" s="17" t="s">
+        <v>230</v>
+      </c>
+      <c r="B27" s="13" t="s">
+        <v>231</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A28" s="17" t="s">
+        <v>235</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A29" s="17" t="s">
+        <v>238</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>239</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="187.2" x14ac:dyDescent="0.3">
+      <c r="A30" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="B30" s="13" t="s">
+        <v>242</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="230.4" x14ac:dyDescent="0.3">
+      <c r="A31" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="345.6" x14ac:dyDescent="0.3">
+      <c r="A32" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>248</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="244.8" x14ac:dyDescent="0.3">
+      <c r="A33" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="B33" s="13" t="s">
+        <v>253</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="244.8" x14ac:dyDescent="0.3">
+      <c r="A34" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>258</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="316.8" x14ac:dyDescent="0.3">
+      <c r="A35" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A36" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="B36" s="8" t="s">
+        <v>261</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="B37" s="8" t="s">
+        <v>264</v>
+      </c>
+      <c r="C37" s="8"/>
+    </row>
+    <row r="38" spans="1:3" ht="216" x14ac:dyDescent="0.3">
+      <c r="A38" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="B38" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A39" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="B39" s="8" t="s">
+        <v>269</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A40" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="B40" s="8" t="s">
+        <v>272</v>
+      </c>
+      <c r="C40" s="8" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="408.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="B41" s="8" t="s">
+        <v>275</v>
+      </c>
+      <c r="C41" s="8" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="244.8" x14ac:dyDescent="0.3">
+      <c r="A42" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="B42" s="8" t="s">
+        <v>278</v>
+      </c>
+      <c r="C42" s="8" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="345.6" x14ac:dyDescent="0.3">
+      <c r="A43" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="B43" s="8" t="s">
+        <v>281</v>
+      </c>
+      <c r="C43" s="8" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A44" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="B44" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="C44" s="8" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A45" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="B45" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="C45" s="8" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="A46" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="B46" s="8" t="s">
+        <v>290</v>
+      </c>
+      <c r="C46" s="8" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="216" x14ac:dyDescent="0.3">
+      <c r="A47" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="B47" s="8" t="s">
+        <v>293</v>
+      </c>
+      <c r="C47" s="8" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A48" s="5"/>
+      <c r="B48" s="8"/>
+      <c r="C48" s="8"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C20:C21"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5CCF04C-0835-4D58-92E3-D943C359D4B3}">
   <dimension ref="A1:C11"/>
   <sheetViews>
@@ -2283,18 +3823,6 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15781DA7-1F29-4D25-BD3A-E2070CCC16C8}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 

--- a/Archivos/Funciones.xlsx
+++ b/Archivos/Funciones.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\DES\Archivos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D46ECEA-C32A-49B0-BA49-A4771157C93B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4BB6493-396C-4662-B79F-C37E7135BC83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2652" yWindow="2652" windowWidth="11424" windowHeight="8964" activeTab="1" xr2:uid="{8315492C-99B7-4496-8BBA-6A10F97535C8}"/>
+    <workbookView xWindow="2652" yWindow="2652" windowWidth="11424" windowHeight="8964" xr2:uid="{8315492C-99B7-4496-8BBA-6A10F97535C8}"/>
   </bookViews>
   <sheets>
     <sheet name="Arrays" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="298">
   <si>
     <t>FUNCIONES</t>
   </si>
@@ -1955,6 +1955,30 @@
 echo strtr("hey, dije hola", $conv);
 ?&gt;
 hola, dije hey</t>
+  </si>
+  <si>
+    <t>array_intersect()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Devuelve una matriz que contiene todos los valores array que están presentes en todos los 
+argumentos. Las claves se conservan. 
+El primer parámetro, es la matriz con los valores que queremos verificar.
+El segundo parámetro, son las matrices con las que vamos a comparar los valores anteriores.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;?php
+$array1 = array("a" =&gt; "green", "red", "blue");
+$array2 = array("b" =&gt; "green", "yellow", "red");
+$result = array_intersect($array1, $array2);
+print_r($result);
+?&gt;
+Formación
+(
+    [a] =&gt; verde
+    [0] =&gt; rojo
+)
+</t>
   </si>
 </sst>
 </file>
@@ -2217,6 +2241,18 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2226,12 +2262,6 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2239,12 +2269,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2619,8 +2643,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE4C0BA5-67CA-4BF0-AF87-5886AC2AB380}">
   <dimension ref="A1:D57"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection sqref="A1:C4"/>
+    <sheetView tabSelected="1" topLeftCell="A51" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B64" sqref="B64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3037,7 +3061,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="345.6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" ht="360" x14ac:dyDescent="0.3">
       <c r="A39" s="5" t="s">
         <v>125</v>
       </c>
@@ -3084,20 +3108,20 @@
       <c r="C42" s="22"/>
     </row>
     <row r="43" spans="1:4" ht="259.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="36" t="s">
+      <c r="A43" s="28" t="s">
         <v>134</v>
       </c>
       <c r="B43" s="25" t="s">
         <v>135</v>
       </c>
-      <c r="C43" s="31" t="s">
+      <c r="C43" s="30" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="303" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="37"/>
+      <c r="A44" s="29"/>
       <c r="B44" s="27"/>
-      <c r="C44" s="32"/>
+      <c r="C44" s="31"/>
     </row>
     <row r="45" spans="1:4" ht="144" x14ac:dyDescent="0.3">
       <c r="A45" s="17" t="s">
@@ -3176,10 +3200,16 @@
         <v>160</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A52" s="5"/>
-      <c r="B52" s="13"/>
-      <c r="C52" s="8"/>
+    <row r="52" spans="1:3" ht="230.4" x14ac:dyDescent="0.3">
+      <c r="A52" s="17" t="s">
+        <v>295</v>
+      </c>
+      <c r="B52" s="13" t="s">
+        <v>296</v>
+      </c>
+      <c r="C52" s="8" t="s">
+        <v>297</v>
+      </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" s="5"/>
@@ -3223,7 +3253,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15781DA7-1F29-4D25-BD3A-E2070CCC16C8}">
   <dimension ref="A1:C48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
@@ -3766,47 +3796,47 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="28"/>
+      <c r="B1" s="32"/>
       <c r="C1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="33" t="s">
         <v>17</v>
       </c>
       <c r="B2" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="31" t="s">
+      <c r="C2" s="30" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="159.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="30"/>
+      <c r="A3" s="34"/>
       <c r="B3" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="32"/>
+      <c r="C3" s="31"/>
     </row>
     <row r="4" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="30" t="s">
+      <c r="A4" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="34" t="s">
+      <c r="B4" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="31" t="s">
+      <c r="C4" s="30" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="33"/>
-      <c r="B5" s="35"/>
-      <c r="C5" s="32"/>
+      <c r="A5" s="35"/>
+      <c r="B5" s="37"/>
+      <c r="C5" s="31"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C11" s="11"/>
@@ -3841,10 +3871,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="28"/>
+      <c r="B1" s="32"/>
       <c r="C1" s="2" t="s">
         <v>3</v>
       </c>
@@ -3872,20 +3902,20 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="30" t="s">
+      <c r="A4" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="34" t="s">
+      <c r="B4" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="31" t="s">
+      <c r="C4" s="30" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="33"/>
-      <c r="B5" s="35"/>
-      <c r="C5" s="32"/>
+      <c r="A5" s="35"/>
+      <c r="B5" s="37"/>
+      <c r="C5" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -3913,10 +3943,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="28"/>
+      <c r="B1" s="32"/>
       <c r="C1" s="2" t="s">
         <v>3</v>
       </c>
@@ -3964,10 +3994,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="28"/>
+      <c r="B1" s="32"/>
       <c r="C1" s="2" t="s">
         <v>3</v>
       </c>
